--- a/806209426/localisation/excel/combat_l_german.xlsx
+++ b/806209426/localisation/excel/combat_l_german.xlsx
@@ -112,13 +112,13 @@
     <t xml:space="preserve"> COMBAT_DIVISION_ATTACKER:</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME|H$ (§YAngreifer§!)\n\n</t>
+    <t xml:space="preserve">$NAME|H$ (§Y§Y Angreifer §!§! )\n\n</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_DIVISION_DEFENDER:</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME|H$ (§YVerteidiger§!)\n\n</t>
+    <t xml:space="preserve">$NAME|H$ (§Y§Y Verteidiger §!§! )\n\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTICS_COMBAT_DESC:</t>
@@ -142,31 +142,31 @@
     <t xml:space="preserve"> PIERCING_THRESHOLD_TO_DAMAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y&gt;§!$THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$ Schaden</t>
+    <t xml:space="preserve">§Y§Y &gt; §!§! $THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$ Schaden</t>
   </si>
   <si>
     <t xml:space="preserve"> PIERCING_THRESHOLD_TO_DAMAGE_LOWEST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R&lt;§!$THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$ Schaden</t>
+    <t xml:space="preserve">§R§R &lt; §!§! $THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$ Schaden</t>
   </si>
   <si>
     <t xml:space="preserve"> NAVY_PIERCING_TOOLTIP_INFO:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDurchschlagskraft§!\nAuf dem Schiff montierte Kanonen haben eine höhere Chance, ein feindliches Schiff kritisch zu treffen, abhängig vom Durchschlagswert der Kanone im Vergleich zur Panzerung des Ziels:\n\n</t>
+    <t xml:space="preserve">§Y§Y Durchschlagskraft §!§! \nAuf dem Schiff montierte Kanonen haben eine höhere Chance, ein feindliches Schiff kritisch zu treffen, abhängig vom Durchschlagswert der Kanone im Vergleich zur Panzerung des Ziels:\n\n</t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y&gt;§!$THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$-Chance auf kritischen Treffer</t>
+    <t xml:space="preserve">§Y§Y &gt; §!§! $THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$-Chance auf kritischen Treffer</t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE_LOWEST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R&lt;§!$THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$-Chance auf kritischen Treffer</t>
+    <t xml:space="preserve">§R§R &lt; §!§! $THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$-Chance auf kritischen Treffer</t>
   </si>
   <si>
     <t xml:space="preserve"> BM_LEADER_BONUS:</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve"> TACTIC_CURRENTLY_COUNTERED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDie Taktik wurde gekontert!§!</t>
+    <t xml:space="preserve">§R§R Die Taktik wurde gekontert! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TACTIC_COUNTERED_BY:</t>
@@ -493,13 +493,13 @@
     <t xml:space="preserve"> TACTICS_LIST_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HTaktikliste§!\n\nZeigt eine Liste aktiver und inaktiver Taktiken, die im Kampf angewandt werden können.</t>
+    <t xml:space="preserve">§H§H Taktikliste §!§! \n\nZeigt eine Liste aktiver und inaktiver Taktiken, die im Kampf angewandt werden können.</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTICS_UNLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GFreigeschaltet§!</t>
+    <t xml:space="preserve">§G§G Freigeschaltet §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TACTICS_LOCKED_BY_TECH:</t>
@@ -511,13 +511,13 @@
     <t xml:space="preserve"> TACTICS_LOCKED_BY_NOT_HANDLED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen.§!</t>
+    <t xml:space="preserve">§Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TACTICS_LOCKED_TECH_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n £trigger_no §H$NAME$ ($CATEGORY$)§!</t>
+    <t xml:space="preserve">\n £trigger_no §H§H $NAME$ ($CATEGORY$) §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TACTICS_BASE_WEIGHT:</t>
@@ -553,7 +553,7 @@
     <t xml:space="preserve"> OPEN_ARMY_LEADER_PREFERRED_TACTIC_SELECTION:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sie können eine §HBevorzugte Taktik§! für diesen Charakter auswählen.</t>
+    <t xml:space="preserve">Sie können eine §H§H Bevorzugte Taktik §!§!  für diesen Charakter auswählen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTIC_CONDITIONS_NOT_MET:</t>
@@ -607,79 +607,79 @@
     <t xml:space="preserve"> CREATE_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWählen Sie Divisionen aus, bevor Sie eine Armee erstellen!§!</t>
+    <t xml:space="preserve">§R§R Wählen Sie Divisionen aus, bevor Sie eine Armee erstellen! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CREATE_ARMY_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWählen Sie Armeen aus, bevor Sie eine Armeegruppe erstellen!§!</t>
+    <t xml:space="preserve">§R§R Wählen Sie Armeen aus, bevor Sie eine Armeegruppe erstellen! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CREATE_GROUP_WITH_UNITS_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um eine neue Armee zu erstellen und ausgewählte Divisionen zuzuordnen§!</t>
+    <t xml:space="preserve">§G§G Klicken, um eine neue Armee zu erstellen und ausgewählte Divisionen zuzuordnen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CREATE_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um eine neue Armeegruppe zu erstellen und ausgewählte Armeen zuzuweisen§!</t>
+    <t xml:space="preserve">§G§G Klicken, um eine neue Armeegruppe zu erstellen und ausgewählte Armeen zuzuweisen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_GROUP_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um auszuwählen</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um auszuwählen</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTACH_AIRWING_TO_GROUP_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken§!, um Luftgeschwader zu Armee zuzuweisen</t>
+    <t xml:space="preserve">§G§G Rechtsklicken §!§! , um Luftgeschwader zu Armee zuzuweisen</t>
   </si>
   <si>
     <t xml:space="preserve"> WING_CAN_NOT_ATTACH_ALREADY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAlle Luftgeschwader sind bereits der Armee zugewiesen!§!</t>
+    <t xml:space="preserve">§R§R Alle Luftgeschwader sind bereits der Armee zugewiesen! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> WING_CAN_NOT_ATTACH_ARMY_GROUP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftgeschwader können nur Armeen zugewiesen werden§!</t>
+    <t xml:space="preserve">§R§R Luftgeschwader können nur Armeen zugewiesen werden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> WING_CAN_NOT_ATTACH_WRONG_TYPE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RMarinebomber und strategische Bomber können nicht Armeen zugewiesen werden§!</t>
+    <t xml:space="preserve">§R§R Marinebomber und strategische Bomber können nicht Armeen zugewiesen werden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> WING_CAN_NOT_ATTACH_TRAINING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RZuweisung nicht möglich, während §HPilotenübungen§! ausgeführt werden§!</t>
+    <t xml:space="preserve">§R§R Zuweisung nicht möglich, während §H§H Pilotenübungen §!§!  ausgeführt werden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_GROUP_WITH_UNITS_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken§!, um die ausgewählten §YDivisionen§! zuzuweisen</t>
+    <t xml:space="preserve">§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Divisionen §!§!  zuzuweisen</t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_GROUP_WITH_RAILWAY_GUNS_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken§!, um die ausgewählten §YEisenbahngeschütze§! zuzuweisen</t>
+    <t xml:space="preserve">§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Eisenbahngeschütze §!§!  zuzuweisen</t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken§!, um die ausgewählten §YArmeen§! zuzuweisen</t>
+    <t xml:space="preserve">§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Armeen §!§!  zuzuweisen</t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_GROUP_WITH_RWGS_SELECTED_TOOLTIP:</t>
@@ -694,13 +694,13 @@
     <t xml:space="preserve"> COMMAND_GROUP_NO_ORDER_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n£GFX_no_order_texticon §RArmee hat keinen Befehl.§!</t>
+    <t xml:space="preserve">\n£GFX_no_order_texticon §R§R Armee hat keinen Befehl. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMAND_GROUP_UNASSIGNED_DIVISIONS:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n£GFX_no_order_texticon §RDivisionen, die keinem Befehl zugewiesen sind: §!$UNASSIGNED|Y$</t>
+    <t xml:space="preserve">\n£GFX_no_order_texticon §R§R Divisionen, die keinem Befehl zugewiesen sind:  §!§! $UNASSIGNED|Y$</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMAND_ARMY_GROUP_DESC:</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve"> OPERATION_RIGHT_CLICK_GROUP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um Divisionen mit dieser Armee zu verknüpfen§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um Divisionen mit dieser Armee zu verknüpfen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_BATTLE_TITLE:</t>
@@ -790,7 +790,7 @@
     <t xml:space="preserve"> COMBAT_COMBAT_WIDTH_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HGefechtsbreite§!\n Bestimmt, wie viele Divisionen auf jeder Seite in der Lage sind, in den Kampf einzugreifen. Wie viel Breite eine Division einnimmt, hängt von ihrem Entwurf ab. Durch den Angriff aus mehreren Richtungen können Sie die verfügbare Gesamtbreite erhöhen.</t>
+    <t xml:space="preserve">§H§H Gefechtsbreite §!§! \n Bestimmt, wie viele Divisionen auf jeder Seite in der Lage sind, in den Kampf einzugreifen. Wie viel Breite eine Division einnimmt, hängt von ihrem Entwurf ab. Durch den Angriff aus mehreren Richtungen können Sie die verfügbare Gesamtbreite erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_PROGRESS_DESC:</t>
@@ -802,13 +802,13 @@
     <t xml:space="preserve"> COMBAT_WE_ARE_WINNING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GWir gewinnen diese Schlacht!§!</t>
+    <t xml:space="preserve">§G§G Wir gewinnen diese Schlacht! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_WE_ARE_LOSING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWir verlieren diese Schlacht!§!</t>
+    <t xml:space="preserve">§R§R Wir verlieren diese Schlacht! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LAST_MORE_THAN_DAY:</t>
@@ -826,7 +826,7 @@
     <t xml:space="preserve"> COMBAT_UNDECIDED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDer Ausgang ist derzeit offen§!</t>
+    <t xml:space="preserve">§Y§Y Der Ausgang ist derzeit offen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> UNIT_COMBAT_WIDTH:</t>
@@ -904,7 +904,7 @@
     <t xml:space="preserve"> LAND_COMBAT_ATTACK_PROVINCE_MODIFIERS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAngriffsmodifikatoren§! für $DIVISION|H$:</t>
+    <t xml:space="preserve">§H§H Angriffsmodifikatoren §!§!  für $DIVISION|H$:</t>
   </si>
   <si>
     <t xml:space="preserve"> LAND_COMBAT_TOOLTIP_ATTACKER:</t>
@@ -964,7 +964,7 @@
     <t xml:space="preserve"> NAVAL_COMBAT_CLICK_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um das laufende Gefecht zu zeigen.§!\n§GRechtsklicken, um die Kamera zum Kampf zu bewegen.§!</t>
+    <t xml:space="preserve">§G§G Klicken, um das laufende Gefecht zu zeigen. §!§! \n§G§G Rechtsklicken, um die Kamera zum Kampf zu bewegen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_COMBAT_ATTACKER_ACTUAL_PARTICIPANT:</t>
@@ -982,13 +982,13 @@
     <t xml:space="preserve"> COMBAT_ATTACKER_WINNING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDer Angreifer siegt.§!</t>
+    <t xml:space="preserve">§Y§Y Der Angreifer siegt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_DEFENDER_WINNING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDer Verteidiger siegt.§!</t>
+    <t xml:space="preserve">§Y§Y Der Verteidiger siegt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_INVASION_COMBAT_PROGRESS_DESC:</t>
@@ -1096,7 +1096,7 @@
     <t xml:space="preserve"> NAVAL_COMBAT_RESULT_SURVIVORS_DMG:</t>
   </si>
   <si>
-    <t xml:space="preserve">Überlebende (§WDurchschnittliche Stärke: $DMG|%0R$§!):</t>
+    <t xml:space="preserve">Überlebende (§W§W Durchschnittliche Stärke: $DMG|%0R$ §!§! ):</t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_COMBAT_RESULT_CONVOY_TYPE:</t>
@@ -1132,7 +1132,7 @@
     <t xml:space="preserve"> NAVAL_COMBAT_RESULT_SURVIVOR_CONVOYS:</t>
   </si>
   <si>
-    <t xml:space="preserve">$FLAG$ $COUNT|H$ §HKonvoi(s)§!</t>
+    <t xml:space="preserve">$FLAG$ $COUNT|H$ §H§H Konvoi(s) §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_COMBAT_RESULT_SUNK_BY:</t>
@@ -1144,13 +1144,13 @@
     <t xml:space="preserve"> LAND_COMBAT_CAS_INFO:</t>
   </si>
   <si>
-    <t xml:space="preserve">Abschüsse gesamt: $LOST|R$\n$STR|R0$ Schaden an §YStärke§! verursacht\n$ORG|R0$ Schaden an §YOrganisation§! verursacht</t>
+    <t xml:space="preserve">Abschüsse gesamt: $LOST|R$\n$STR|R0$ Schaden an §Y§Y Stärke §!§!  verursacht\n$ORG|R0$ Schaden an §Y§Y Organisation §!§!  verursacht</t>
   </si>
   <si>
     <t xml:space="preserve"> LAND_COMBAT_CAS_INFO_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Etwa $NUM|Y$ Unterstützungsflugzeuge der Seite $SIDE$ konnten in diesem Kampf helfen.\nSie haben $ORG|G0$ Schaden an §YOrganisation§! verursacht. Die aktuelle §YOrganisation§! des Feindes beträgt $ORG_MAX|G0$.\nSie haben $STR|G0$ Schaden an §YStärke§! verursacht, die aktuelle §YStärke§! des Feindes beträgt $STR_MAX|G0$.\nDie §YFlugabwehr§! der feindlichen Divisionen konnte insgesamt $KILL|R$ Flugzeuge abschießen und $ORG_PREVENT|R0$ Schaden an §YOrganisation§! und $STR_PREVENT|R0$ Schaden an §YStärke§! verhindern.</t>
+    <t xml:space="preserve">Etwa $NUM|Y$ Unterstützungsflugzeuge der Seite $SIDE$ konnten in diesem Kampf helfen.\nSie haben $ORG|G0$ Schaden an §Y§Y Organisation §!§!  verursacht. Die aktuelle §Y§Y Organisation §!§!  des Feindes beträgt $ORG_MAX|G0$.\nSie haben $STR|G0$ Schaden an §Y§Y Stärke §!§!  verursacht, die aktuelle §Y§Y Stärke §!§!  des Feindes beträgt $STR_MAX|G0$.\nDie §Y§Y Flugabwehr §!§!  der feindlichen Divisionen konnte insgesamt $KILL|R$ Flugzeuge abschießen und $ORG_PREVENT|R0$ Schaden an §Y§Y Organisation §!§!  und $STR_PREVENT|R0$ Schaden an §Y§Y Stärke §!§!  verhindern.</t>
   </si>
   <si>
     <t xml:space="preserve"> LAND_COMBAT_CAS_INFO_TOOLTIP_DETAIL:</t>
@@ -1174,7 +1174,7 @@
     <t xml:space="preserve"> CARRIER_STACK_PENALTY_LORE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§LDie ideale Zusammenstellung einer schnellen Trägerkampfgruppe besteht aus vier Flugzeugträgern, sechs bis acht Unterstützungsschiffen und mindestens 18 Zerstörern, vorzugsweise 24. Mehr als vier Flugzeugträger in einer Einsatzgruppe können aufgrund des benötigten Luftraums nicht zum Vorteil genutzt werden. Weniger als vier Flugzeugträger erfordern eine unwirtschaftliche Nutzung von Unterstützungs- und Aufklärungsschiffen.\nAdmiral Marc Mitscher§!</t>
+    <t xml:space="preserve">§L§L Die ideale Zusammenstellung einer schnellen Trägerkampfgruppe besteht aus vier Flugzeugträgern, sechs bis acht Unterstützungsschiffen und mindestens 18 Zerstörern, vorzugsweise 24. Mehr als vier Flugzeugträger in einer Einsatzgruppe können aufgrund des benötigten Luftraums nicht zum Vorteil genutzt werden. Weniger als vier Flugzeugträger erfordern eine unwirtschaftliche Nutzung von Unterstützungs- und Aufklärungsschiffen.\nAdmiral Marc Mitscher §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BM_SHORE_BOMBARD:</t>
@@ -1228,7 +1228,7 @@
     <t xml:space="preserve"> MISSION_RESULT_LAST_MONTH:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergebnis letzte §H30§! Tage:</t>
+    <t xml:space="preserve">Ergebnis letzte §H§H 30 §!§!  Tage:</t>
   </si>
   <si>
     <t xml:space="preserve"> MISSION_RESULT_LAST_DAY:</t>
@@ -1360,13 +1360,13 @@
     <t xml:space="preserve"> COMBAT_EXILES_ON_CORES_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HIns Exil verbannte Veteranen§! kämpfen in Kerngebiet. Angriff: $ATK_ON_CORE|%+$ Verteidigung: $DEF_ON_CORE|%+$.</t>
+    <t xml:space="preserve">§H§H Ins Exil verbannte Veteranen §!§!  kämpfen in Kerngebiet. Angriff: $ATK_ON_CORE|%+$ Verteidigung: $DEF_ON_CORE|%+$.</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_EXILES_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HIns Exil verbannte Veteranen§!: Kampfboni gegen $AMOUNT|H$ von $TOTAL|H$ feindlichen Divisionen.</t>
+    <t xml:space="preserve">§H§H Ins Exil verbannte Veteranen §!§! : Kampfboni gegen $AMOUNT|H$ von $TOTAL|H$ feindlichen Divisionen.</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_EXILES_DESC_DELAYED:</t>
@@ -1456,7 +1456,7 @@
     <t xml:space="preserve"> CARRIER_EFFICIENCY_BAD:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YTrägereffizienz§!: $VAL|R%$</t>
+    <t xml:space="preserve">§Y§Y Trägereffizienz §!§! : $VAL|R%$</t>
   </si>
   <si>
     <t xml:space="preserve"> CARRIER_EFFICIENCY_DESC:</t>
@@ -1510,13 +1510,13 @@
     <t xml:space="preserve"> UNIT_AMOUNT_PENALTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RFührt zu viele Einheiten an. Alle Werte reduziert um $PENALTY|Y1%$§!</t>
+    <t xml:space="preserve">§R§R Führt zu viele Einheiten an. Alle Werte reduziert um $PENALTY|Y1%$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ARMY_AMOUNT_PENALTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RFührt zu viele Armeen an. Alle Werte werden reduziert um $PENALTY|Y1%$§!</t>
+    <t xml:space="preserve">§R§R Führt zu viele Armeen an. Alle Werte werden reduziert um $PENALTY|Y1%$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SPEED_REINFORCEMENT_BONUS:</t>
@@ -1552,7 +1552,7 @@
     <t xml:space="preserve"> LEADER_HAS_INITIATIVE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HInitiative!§!\nDiese Seite hat momentan die Initiative, weil ihre Divisionen über einen höheren Aufklärungswert verfügen oder ihr Anführer eine höhere Fähigkeitsstufe besitzt.\nDiese Seite erhält daher eine zusätzliche Gelegenheit, um eine bessere Taktik zu wählen.</t>
+    <t xml:space="preserve">§H§H Initiative! §!§! \nDiese Seite hat momentan die Initiative, weil ihre Divisionen über einen höheren Aufklärungswert verfügen oder ihr Anführer eine höhere Fähigkeitsstufe besitzt.\nDiese Seite erhält daher eine zusätzliche Gelegenheit, um eine bessere Taktik zu wählen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTIC_LIST_VALUE_GOOD:</t>
@@ -1630,19 +1630,19 @@
     <t xml:space="preserve"> COMBAT_LOG_LOSSES_IN_MP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HVerlorene Mannstärke:§! $NUM|*$</t>
+    <t xml:space="preserve">§H§H Verlorene Mannstärke: §!§!  $NUM|*$</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_ENEMY_EQ_LOST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Gefechtsverluste§!</t>
+    <t xml:space="preserve">§H§H Feindliche Gefechtsverluste §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_EQ_LOST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HVerlorene Ausrüstung§!</t>
+    <t xml:space="preserve">§H§H Verlorene Ausrüstung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_EQ_LOST_ATTR_COMBAT:</t>
@@ -1666,25 +1666,25 @@
     <t xml:space="preserve"> COMBAT_LOG_LOSS_REASON_COMBAT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Him Gefecht§!</t>
+    <t xml:space="preserve">§H§H im Gefecht §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_RECOVERED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HZurückgeholt§!</t>
+    <t xml:space="preserve">§H§H Zurückgeholt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_LOSS_REASON_ATTRITION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Hdurch Verschleiß§!</t>
+    <t xml:space="preserve">§H§H durch Verschleiß §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_TEMPLATES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HDivisionsvorlagen§!</t>
+    <t xml:space="preserve">§H§H Divisionsvorlagen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_RATIO:</t>
@@ -1702,7 +1702,7 @@
     <t xml:space="preserve"> EQUIPMENT_RECOVERY_ENTRY_GENERAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Von einer Division nach dem Gefecht zurückgeholte Ausrüstung. Je höher der Zuverlässigkeitswert eines Ausrüstungsgegenstands, desto höher auch die Chance, ihn zu retten. Wählen Sie die Ansicht §YDetaillierte Liste§!, um mehr Details zu einem Ausrüstungsgegenstand zu sehen.</t>
+    <t xml:space="preserve">Von einer Division nach dem Gefecht zurückgeholte Ausrüstung. Je höher der Zuverlässigkeitswert eines Ausrüstungsgegenstands, desto höher auch die Chance, ihn zu retten. Wählen Sie die Ansicht §Y§Y Detaillierte Liste §!§! , um mehr Details zu einem Ausrüstungsgegenstand zu sehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_COMBATS_WON_FACTOR:</t>
@@ -1720,7 +1720,7 @@
     <t xml:space="preserve"> COMBAT_LOG_COMBATS_WON:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Hgewonnen§!</t>
+    <t xml:space="preserve">§H§H gewonnen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_COMBATS_WON_DETAILED_DESC:</t>
@@ -1732,7 +1732,7 @@
     <t xml:space="preserve"> COMBAT_LOG_COMBATS_TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Hausgetragen§!</t>
+    <t xml:space="preserve">§H§H ausgetragen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_COMBATS_WON_RATIO:</t>
@@ -1768,43 +1768,43 @@
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_ATTACKER_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere Divisionen standen in diesem Gefecht auf der Seite der §HAngreifer§!.</t>
+    <t xml:space="preserve">Unsere Divisionen standen in diesem Gefecht auf der Seite der §H§H Angreifer §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_DEFENDER_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere Divisionen standen in diesem Gefecht auf der Seite der §HVerteidiger§!.</t>
+    <t xml:space="preserve">Unsere Divisionen standen in diesem Gefecht auf der Seite der §H§H Verteidiger §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_OVERRUN_WIN:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die feindlichen Divisionen wurden von uns §Hüberlaufen§!.</t>
+    <t xml:space="preserve">Die feindlichen Divisionen wurden von uns §H§H überlaufen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_OVERRUN_LOSS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere Divisionen wurden vom Feind §Hüberlaufen§!.</t>
+    <t xml:space="preserve">Unsere Divisionen wurden vom Feind §H§H überlaufen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_OVERRUN_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn eine Division §Hüberlaufen§! wird, wird sie vollkommen zerstört. Das geschieht, wenn eine Division sich in eine Provinz zurückzieht, die dann in feindliche Hände fällt.</t>
+    <t xml:space="preserve">Wenn eine Division §H§H überlaufen §!§!  wird, wird sie vollkommen zerstört. Das geschieht, wenn eine Division sich in eine Provinz zurückzieht, die dann in feindliche Hände fällt.</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_WE_LOST:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RWir haben verloren!§!</t>
+    <t xml:space="preserve">\n§R§R Wir haben verloren! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_WE_WON:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§GWir haben gewonnen!§!</t>
+    <t xml:space="preserve">\n§G§G Wir haben gewonnen! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_LOCATION_STATE:</t>
@@ -1822,19 +1822,19 @@
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_TIME_HOURS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Vor $NUM|G$ §HStunden§!.</t>
+    <t xml:space="preserve">Vor $NUM|G$ §H§H Stunden §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_TIME_DAYS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Vor $NUM|G$ §HTagen§!.</t>
+    <t xml:space="preserve">Vor $NUM|G$ §H§H Tagen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_TIME_MONTHS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Vor $NUM|G$ §HMonaten§!.</t>
+    <t xml:space="preserve">Vor $NUM|G$ §H§H Monaten §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_TIME_DESC:</t>
@@ -1876,13 +1876,13 @@
     <t xml:space="preserve"> COMBAT_LOG_BATTLE_PART_COUNTRIES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBeteiligte Länder:§!</t>
+    <t xml:space="preserve">§H§H Beteiligte Länder: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_MP_LOST_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HMannstärke verloren§!\nDurch feindliche Bodentruppen: $GND|R$\nDurch feindliche Flugzeuge verloren: $AIR|R$</t>
+    <t xml:space="preserve">§H§H Mannstärke verloren §!§! \nDurch feindliche Bodentruppen: $GND|R$\nDurch feindliche Flugzeuge verloren: $AIR|R$</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_USED_COMBAT_WIDTH:</t>
@@ -1894,13 +1894,13 @@
     <t xml:space="preserve"> COMBAT_LOG_MP_LOST_WITH_NAVY_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HMannstärke verloren§!\nVerluste durch feindliche Bodentruppen: $GND|R$\nVerluste durch feindliche Flugzeuge: $AIR|R$\nVerluste durch feindliche Marine: $NAVY|R$</t>
+    <t xml:space="preserve">§H§H Mannstärke verloren §!§! \nVerluste durch feindliche Bodentruppen: $GND|R$\nVerluste durch feindliche Flugzeuge: $AIR|R$\nVerluste durch feindliche Marine: $NAVY|R$</t>
   </si>
   <si>
     <t xml:space="preserve"> COMBAT_LOG_EQ_CAPTURED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAusrüstung erobert§!</t>
+    <t xml:space="preserve">§H§H Ausrüstung erobert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_CAPTURED_ENTRY:</t>
@@ -1942,13 +1942,13 @@
     <t xml:space="preserve"> BORDER_CONFLICT_IF_YOU_WIN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HWenn Sie gewinnen:§!</t>
+    <t xml:space="preserve">§H§H Wenn Sie gewinnen: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BORDER_CONFLICT_IF_YOU_LOSE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HWenn Sie verlieren:§!</t>
+    <t xml:space="preserve">§H§H Wenn Sie verlieren: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BORDER_CONFLICT_CHANGE_STATE:</t>
@@ -1972,7 +1972,7 @@
     <t xml:space="preserve"> DISENGAGE_FROM_COMBAT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAbziehen§!\n\nZiehen Sie Ihre Einsatzgruppen vom Kampf ab.</t>
+    <t xml:space="preserve">§H§H Abziehen §!§! \n\nZiehen Sie Ihre Einsatzgruppen vom Kampf ab.</t>
   </si>
   <si>
     <t xml:space="preserve"> DISENGAGE_FROM_COMBAT_DONE:</t>
@@ -2068,43 +2068,43 @@
     <t xml:space="preserve"> combat_stat_depth_charges_info:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HWasserbomben§!\n\nWasserbomben werden gegen U-Boote eingesetzt, die von anderen Waffentypen nicht angegriffen werden können.\n</t>
+    <t xml:space="preserve">§H§H Wasserbomben §!§! \n\nWasserbomben werden gegen U-Boote eingesetzt, die von anderen Waffentypen nicht angegriffen werden können.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> combat_stat_light_guns_info:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HLeichte Geschütze§!\n\nLeichte Geschütze sind effektiver gegen §YGeleitschiffen§!. Die leichten Geschütze Ihrer Flotte zielen auf den Feind, der sich am wenigsten weit entfernt befindet. \n</t>
+    <t xml:space="preserve">§H§H Leichte Geschütze §!§! \n\nLeichte Geschütze sind effektiver gegen §Y§Y Geleitschiffen §!§! . Die leichten Geschütze Ihrer Flotte zielen auf den Feind, der sich am wenigsten weit entfernt befindet. \n</t>
   </si>
   <si>
     <t xml:space="preserve"> combat_stat_heavy_guns_info:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSchwere Geschütze§!\n\nSchwere Geschütze sind effektiver gegen §YGroßkampfschiffe§!. Sie können die zwei am wenigsten weit entfernten Feindesgruppen erreichen und und zielen bevorzugt auf größere Ziele.\n</t>
+    <t xml:space="preserve">§H§H Schwere Geschütze §!§! \n\nSchwere Geschütze sind effektiver gegen §Y§Y Großkampfschiffe §!§! . Sie können die zwei am wenigsten weit entfernten Feindesgruppen erreichen und und zielen bevorzugt auf größere Ziele.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> combat_stat_anti_air:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFottenflugabwehr§!\n\nDie Flottenflugabwehr wird berechnet, indem die gesamte Flugabwehr der gesamten Flotte berücksichtigt wird. Sie wird genutzt, um feindliche Bomber zu stören, die die Flotte angreifen, und auch um ihren Schaden zu verringern.\n\\\" combat_stat_torpedoes_info: \"§HTorpedo§!\n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §YGroßkampfschiffe§!. Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §YSchutzeffizienz§! ab.\n</t>
+    <t xml:space="preserve">§H§H Fottenflugabwehr §!§! \n\nDie Flottenflugabwehr wird berechnet, indem die gesamte Flugabwehr der gesamten Flotte berücksichtigt wird. Sie wird genutzt, um feindliche Bomber zu stören, die die Flotte angreifen, und auch um ihren Schaden zu verringern.\n\\\" combat_stat_torpedoes_info: \"§H§H Torpedo §!§! \n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §Y§Y Großkampfschiffe §!§! . Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §Y§Y Schutzeffizienz §!§!  ab.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> combat_stat_torpedoes_info:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HTorpedo§!\n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §YGroßkampfschiffe§!. Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §YSchutzeffizienz§! ab.\n</t>
+    <t xml:space="preserve">§H§H Torpedo §!§! \n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §Y§Y Großkampfschiffe §!§! . Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §Y§Y Schutzeffizienz §!§!  ab.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> screening_efficiency_info:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSchutzeffizienz§!\n\nEine hohe  §YSchutzeffizienz§! verteidigt Ihre §YGroßkampfschiffe§! gegen feindliche Torpedos. Ihre Flugzeugträger werden sowohl von Ihren Großkampfschiffen als auch von Ihren Geleitschiffen geschützt. Großkampfschiffe werden nur von Ihren Geleitschiffen geschützt.\n</t>
+    <t xml:space="preserve">§H§H Schutzeffizienz §!§! \n\nEine hohe  §Y§Y Schutzeffizienz §!§!  verteidigt Ihre §Y§Y Großkampfschiffe §!§!  gegen feindliche Torpedos. Ihre Flugzeugträger werden sowohl von Ihren Großkampfschiffen als auch von Ihren Geleitschiffen geschützt. Großkampfschiffe werden nur von Ihren Geleitschiffen geschützt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> POSITIONING_INFO:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §HPositionierung§! ist ein Maß dafür, wie gut Ihre Flotte im Vergleich zum Feind positioniert ist. Sie wird beeinflusst von der relativen Größe der Flotten, dem Wetter und den Fähigkeiten des Anführers. Die Schiffe, die nach Beginn des Gefechts einsteigen, werden mit einem vorübergehenden Positionierungsmalus belegt.\n\nWenn die Positionierung unter 100% liegt, wird die Flotte mit verschiedenen Mali belegt.\n</t>
+    <t xml:space="preserve">Die §H§H Positionierung §!§!  ist ein Maß dafür, wie gut Ihre Flotte im Vergleich zum Feind positioniert ist. Sie wird beeinflusst von der relativen Größe der Flotten, dem Wetter und den Fähigkeiten des Anführers. Die Schiffe, die nach Beginn des Gefechts einsteigen, werden mit einem vorübergehenden Positionierungsmalus belegt.\n\nWenn die Positionierung unter 100% liegt, wird die Flotte mit verschiedenen Mali belegt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> damage_done_by_weapon_type:</t>
@@ -2224,79 +2224,79 @@
     <t xml:space="preserve"> SCREENING_TOOLTIP_SCREEN_BOX:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schutzeffizienz hinter §YGeleitgruppe§!: $NUM|%.0H$</t>
+    <t xml:space="preserve">Schutzeffizienz hinter §Y§Y Geleitgruppe §!§! : $NUM|%.0H$</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_CAPITAL_BOX:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schutzeffizienz hinter §YSchlachtlinie§!: $NUM|%.0H$</t>
+    <t xml:space="preserve">Schutzeffizienz hinter §Y§Y Schlachtlinie §!§! : $NUM|%.0H$</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_CAPITAL_BOX_COMBINED:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kombinierte Schutzeffizienz hinter §YSchlachtlinie§!: $NUM|%.0H$</t>
+    <t xml:space="preserve">Kombinierte Schutzeffizienz hinter §Y§Y Schlachtlinie §!§! : $NUM|%.0H$</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_FOR_SCREEN_BOX:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ihre $NUM_CAPI|.0H$ §YGroßkampfschiffe§!, $NUM_CARR|.0H$ §YFlugzeugträger§! und $NUM_CONV|.0H$ §YKonvois§! benötigen $NUM_NEED|.0H$ §YSchutzschiffe§!, um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_SCRE|.0H$ §YSchutzschiffe§!.</t>
+    <t xml:space="preserve">Ihre $NUM_CAPI|.0H$ §Y§Y Großkampfschiffe §!§! , $NUM_CARR|.0H$ §Y§Y Flugzeugträger §!§!  und $NUM_CONV|.0H$ §Y§Y Konvois §!§!  benötigen $NUM_NEED|.0H$ §Y§Y Schutzschiffe §!§! , um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_SCRE|.0H$ §Y§Y Schutzschiffe §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_FOR_CAPITAL_BOX:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ihre $NUM_CARR|.0H$ §YFlugzeugträger§! und $NUM_CONV|.0H$ §YKonvois§! benötigen $NUM_NEED|.0H$ §YGroßkampfschiffe§!, um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_CAPI|.0H$ §YGroßkampfschiffe§!.</t>
+    <t xml:space="preserve">Ihre $NUM_CARR|.0H$ §Y§Y Flugzeugträger §!§!  und $NUM_CONV|.0H$ §Y§Y Konvois §!§!  benötigen $NUM_NEED|.0H$ §Y§Y Großkampfschiffe §!§! , um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_CAPI|.0H$ §Y§Y Großkampfschiffe §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_LOW_INFO:</t>
   </si>
   <si>
-    <t xml:space="preserve">Lücken in der §YGeleitgruppe§! führen zu einer niedrigen Schutzeffizienz, wodurch feindliche U-Boote die nächste Schlachtlinie als Ziel anvisieren können.</t>
+    <t xml:space="preserve">Lücken in der §Y§Y Geleitgruppe §!§!  führen zu einer niedrigen Schutzeffizienz, wodurch feindliche U-Boote die nächste Schlachtlinie als Ziel anvisieren können.</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_BONUSES:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ihre Schutzeffizienz verleiht Ihrer §YSchlachtlinie§! die folgenden Boni:\n</t>
+    <t xml:space="preserve">Ihre Schutzeffizienz verleiht Ihrer §Y§Y Schlachtlinie §!§!  die folgenden Boni:\n</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_BONUSES_CAPITAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ihre Schutzeffizienz verleiht Ihrer §YFlugzeugträgergruppe§! die folgenden Boni:\n</t>
+    <t xml:space="preserve">Ihre Schutzeffizienz verleiht Ihrer §Y§Y Flugzeugträgergruppe §!§!  die folgenden Boni:\n</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_TOOLTIP_NO_SCREENS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn Sie nicht genügend §YGeleitschiffe§! besitzen, können feindliche U-Boote und andere leichte Schiffe Ihre Großkampfschiffe mit Torpedos angreifen. Außerdem werden Sie mit einem hohen Malus auf Ihre Positionierung belegt.</t>
+    <t xml:space="preserve">Wenn Sie nicht genügend §Y§Y Geleitschiffe §!§!  besitzen, können feindliche U-Boote und andere leichte Schiffe Ihre Großkampfschiffe mit Torpedos angreifen. Außerdem werden Sie mit einem hohen Malus auf Ihre Positionierung belegt.</t>
   </si>
   <si>
     <t xml:space="preserve"> SCREENING_BOX_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YGeleitgruppe§! enthält alle Geleitschiffe (auch Schutzschiffe genannt). Dabei handelt es sich meist um leichte Kreuzer und Zerstörer. Sie haben die Aufgabe, die feindlichen Geleitschiffe von der primären §YSchlachtlinie§! fernzuhalten. Wenn Ihr Geleitschutz zu schwach ist, können feindliche Geleitschiffe Torpedoangriffe gegen die Schlachtlinie unternehmen.</t>
+    <t xml:space="preserve">Die §Y§Y Geleitgruppe §!§!  enthält alle Geleitschiffe (auch Schutzschiffe genannt). Dabei handelt es sich meist um leichte Kreuzer und Zerstörer. Sie haben die Aufgabe, die feindlichen Geleitschiffe von der primären §Y§Y Schlachtlinie §!§!  fernzuhalten. Wenn Ihr Geleitschutz zu schwach ist, können feindliche Geleitschiffe Torpedoangriffe gegen die Schlachtlinie unternehmen.</t>
   </si>
   <si>
     <t xml:space="preserve"> CAPITAL_BOX_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YSchlachtlinie§! stellt die primäre direkte Feuerkraft der Flotte zur Verfügung, meist in Form von Schlachtschiffen und Schweren Kreuzern. Außerdem verhindert sie, dass feindliche Großkampfschiffe auf verbündete §YFlugzeugträger§! feuern.</t>
+    <t xml:space="preserve">Die §Y§Y Schlachtlinie §!§!  stellt die primäre direkte Feuerkraft der Flotte zur Verfügung, meist in Form von Schlachtschiffen und Schweren Kreuzern. Außerdem verhindert sie, dass feindliche Großkampfschiffe auf verbündete §Y§Y Flugzeugträger §!§!  feuern.</t>
   </si>
   <si>
     <t xml:space="preserve"> CARRIER_BOX_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YFlugzeugträgergruppe§! stellt die primäre Distanzangriffskraft der Flotte zur Verfügung. Sie wird sowohl durch die §YGeleitgruppe§! als auch durch die §YSchlachtlinie§! vor dem Feind beschützt, um ungestört Angriffe unternehmen zu können. Sollte sich ein §YKonvoi§! in der Schlacht befinden, erscheint er auch in diesem Bereich.</t>
+    <t xml:space="preserve">Die §Y§Y Flugzeugträgergruppe §!§!  stellt die primäre Distanzangriffskraft der Flotte zur Verfügung. Sie wird sowohl durch die §Y§Y Geleitgruppe §!§!  als auch durch die §Y§Y Schlachtlinie §!§!  vor dem Feind beschützt, um ungestört Angriffe unternehmen zu können. Sollte sich ein §Y§Y Konvoi §!§!  in der Schlacht befinden, erscheint er auch in diesem Bereich.</t>
   </si>
   <si>
     <t xml:space="preserve"> SUBMARINE_BOX_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Das §YU-Boot-Wolfsrudel§! versucht, fliehende Schiffe mit Torpedos zu versenken, ohne dabei entdeckt zu werden. Wenn der Feind nicht über genügend spezielle U-Boot-Abwehr-Schiffe verfügt, können die U-Boote unbemerkt entkommen.</t>
+    <t xml:space="preserve">Das §Y§Y U-Boot-Wolfsrudel §!§!  versucht, fliehende Schiffe mit Torpedos zu versenken, ohne dabei entdeckt zu werden. Wenn der Feind nicht über genügend spezielle U-Boot-Abwehr-Schiffe verfügt, können die U-Boote unbemerkt entkommen.</t>
   </si>
   <si>
     <t xml:space="preserve"> NAVAL_READY_TO_FIRE:</t>
@@ -2568,8 +2568,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D396" activeCellId="0" sqref="D1:D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> COMBAT_DIVISION_ATTACKER: "$NAME|H$ (§YAngreifer§!)\n\n"</v>
+        <v> COMBAT_DIVISION_ATTACKER: "$NAME|H$ (§Y§Y Angreifer §!§! )\n\n"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> COMBAT_DIVISION_ATTACKER: "$NAME|H$ (§YAngreifer§!)\n\n"</v>
+        <v> COMBAT_DIVISION_ATTACKER: "$NAME|H$ (§Y§Y Angreifer §!§! )\n\n"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,11 +2841,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> COMBAT_DIVISION_DEFENDER: "$NAME|H$ (§YVerteidiger§!)\n\n"</v>
+        <v> COMBAT_DIVISION_DEFENDER: "$NAME|H$ (§Y§Y Verteidiger §!§! )\n\n"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> COMBAT_DIVISION_DEFENDER: "$NAME|H$ (§YVerteidiger§!)\n\n"</v>
+        <v> COMBAT_DIVISION_DEFENDER: "$NAME|H$ (§Y§Y Verteidiger §!§! )\n\n"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> PIERCING_THRESHOLD_TO_DAMAGE: "§Y&gt;§!$THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$ Schaden"</v>
+        <v> PIERCING_THRESHOLD_TO_DAMAGE: "§Y§Y &gt; §!§! $THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$ Schaden"</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> PIERCING_THRESHOLD_TO_DAMAGE: "§Y&gt;§!$THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$ Schaden"</v>
+        <v> PIERCING_THRESHOLD_TO_DAMAGE: "§Y§Y &gt; §!§! $THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$ Schaden"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,11 +2921,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R&lt;§!$THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$ Schaden"</v>
+        <v> PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R§R &lt; §!§! $THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$ Schaden"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R&lt;§!$THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$ Schaden"</v>
+        <v> PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R§R &lt; §!§! $THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$ Schaden"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,11 +2937,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> NAVY_PIERCING_TOOLTIP_INFO: "§YDurchschlagskraft§!\nAuf dem Schiff montierte Kanonen haben eine höhere Chance, ein feindliches Schiff kritisch zu treffen, abhängig vom Durchschlagswert der Kanone im Vergleich zur Panzerung des Ziels:\n\n"</v>
+        <v> NAVY_PIERCING_TOOLTIP_INFO: "§Y§Y Durchschlagskraft §!§! \nAuf dem Schiff montierte Kanonen haben eine höhere Chance, ein feindliches Schiff kritisch zu treffen, abhängig vom Durchschlagswert der Kanone im Vergleich zur Panzerung des Ziels:\n\n"</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> NAVY_PIERCING_TOOLTIP_INFO: "§YDurchschlagskraft§!\nAuf dem Schiff montierte Kanonen haben eine höhere Chance, ein feindliches Schiff kritisch zu treffen, abhängig vom Durchschlagswert der Kanone im Vergleich zur Panzerung des Ziels:\n\n"</v>
+        <v> NAVY_PIERCING_TOOLTIP_INFO: "§Y§Y Durchschlagskraft §!§! \nAuf dem Schiff montierte Kanonen haben eine höhere Chance, ein feindliches Schiff kritisch zu treffen, abhängig vom Durchschlagswert der Kanone im Vergleich zur Panzerung des Ziels:\n\n"</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,11 +2953,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE: "§Y&gt;§!$THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$-Chance auf kritischen Treffer"</v>
+        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE: "§Y§Y &gt; §!§! $THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$-Chance auf kritischen Treffer"</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE: "§Y&gt;§!$THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$-Chance auf kritischen Treffer"</v>
+        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE: "§Y§Y &gt; §!§! $THRESHOLD|%H0$ durchschlagen = $DAMAGE|%H0$-Chance auf kritischen Treffer"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,11 +2969,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R&lt;§!$THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$-Chance auf kritischen Treffer"</v>
+        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R§R &lt; §!§! $THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$-Chance auf kritischen Treffer"</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R&lt;§!$THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$-Chance auf kritischen Treffer"</v>
+        <v> NAVAL_PIERCING_THRESHOLD_TO_DAMAGE_LOWEST: "§R§R &lt; §!§! $THRESHOLD|%R0$ durchschlagen = $DAMAGE|%R0$-Chance auf kritischen Treffer"</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,11 +3161,11 @@
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> TACTIC_CURRENTLY_COUNTERED: "§RDie Taktik wurde gekontert!§!"</v>
+        <v> TACTIC_CURRENTLY_COUNTERED: "§R§R Die Taktik wurde gekontert! §!§! "</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> TACTIC_CURRENTLY_COUNTERED: "§RDie Taktik wurde gekontert!§!"</v>
+        <v> TACTIC_CURRENTLY_COUNTERED: "§R§R Die Taktik wurde gekontert! §!§! "</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> TACTICS_LIST_DESC: "§HTaktikliste§!\n\nZeigt eine Liste aktiver und inaktiver Taktiken, die im Kampf angewandt werden können."</v>
+        <v> TACTICS_LIST_DESC: "§H§H Taktikliste §!§! \n\nZeigt eine Liste aktiver und inaktiver Taktiken, die im Kampf angewandt werden können."</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> TACTICS_LIST_DESC: "§HTaktikliste§!\n\nZeigt eine Liste aktiver und inaktiver Taktiken, die im Kampf angewandt werden können."</v>
+        <v> TACTICS_LIST_DESC: "§H§H Taktikliste §!§! \n\nZeigt eine Liste aktiver und inaktiver Taktiken, die im Kampf angewandt werden können."</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,11 +3865,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> TACTICS_UNLOCKED: "§GFreigeschaltet§!"</v>
+        <v> TACTICS_UNLOCKED: "§G§G Freigeschaltet §!§! "</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> TACTICS_UNLOCKED: "§GFreigeschaltet§!"</v>
+        <v> TACTICS_UNLOCKED: "§G§G Freigeschaltet §!§! "</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> TACTICS_LOCKED_BY_NOT_HANDLED: "§Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen.§!"</v>
+        <v> TACTICS_LOCKED_BY_NOT_HANDLED: "§Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen. §!§! "</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> TACTICS_LOCKED_BY_NOT_HANDLED: "§Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen.§!"</v>
+        <v> TACTICS_LOCKED_BY_NOT_HANDLED: "§Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen. §!§! "</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,11 +3913,11 @@
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> TACTICS_LOCKED_TECH_DESC: "\n £trigger_no §H$NAME$ ($CATEGORY$)§!"</v>
+        <v> TACTICS_LOCKED_TECH_DESC: "\n £trigger_no §H§H $NAME$ ($CATEGORY$) §!§! "</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> TACTICS_LOCKED_TECH_DESC: "\n £trigger_no §H$NAME$ ($CATEGORY$)§!"</v>
+        <v> TACTICS_LOCKED_TECH_DESC: "\n £trigger_no §H§H $NAME$ ($CATEGORY$) §!§! "</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,11 +4009,11 @@
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> OPEN_ARMY_LEADER_PREFERRED_TACTIC_SELECTION: "Sie können eine §HBevorzugte Taktik§! für diesen Charakter auswählen."</v>
+        <v> OPEN_ARMY_LEADER_PREFERRED_TACTIC_SELECTION: "Sie können eine §H§H Bevorzugte Taktik §!§!  für diesen Charakter auswählen."</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v> OPEN_ARMY_LEADER_PREFERRED_TACTIC_SELECTION: "Sie können eine §HBevorzugte Taktik§! für diesen Charakter auswählen."</v>
+        <v> OPEN_ARMY_LEADER_PREFERRED_TACTIC_SELECTION: "Sie können eine §H§H Bevorzugte Taktik §!§!  für diesen Charakter auswählen."</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> CREATE_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§RWählen Sie Divisionen aus, bevor Sie eine Armee erstellen!§!"</v>
+        <v> CREATE_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§R§R Wählen Sie Divisionen aus, bevor Sie eine Armee erstellen! §!§! "</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> CREATE_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§RWählen Sie Divisionen aus, bevor Sie eine Armee erstellen!§!"</v>
+        <v> CREATE_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§R§R Wählen Sie Divisionen aus, bevor Sie eine Armee erstellen! §!§! "</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> CREATE_ARMY_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§RWählen Sie Armeen aus, bevor Sie eine Armeegruppe erstellen!§!"</v>
+        <v> CREATE_ARMY_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§R§R Wählen Sie Armeen aus, bevor Sie eine Armeegruppe erstellen! §!§! "</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v> CREATE_ARMY_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§RWählen Sie Armeen aus, bevor Sie eine Armeegruppe erstellen!§!"</v>
+        <v> CREATE_ARMY_GROUP_WITH_NO_UNIT_SELECTED_TOOLTIP: "§R§R Wählen Sie Armeen aus, bevor Sie eine Armeegruppe erstellen! §!§! "</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> CREATE_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GKlicken, um eine neue Armee zu erstellen und ausgewählte Divisionen zuzuordnen§!"</v>
+        <v> CREATE_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Klicken, um eine neue Armee zu erstellen und ausgewählte Divisionen zuzuordnen §!§! "</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> CREATE_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GKlicken, um eine neue Armee zu erstellen und ausgewählte Divisionen zuzuordnen§!"</v>
+        <v> CREATE_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Klicken, um eine neue Armee zu erstellen und ausgewählte Divisionen zuzuordnen §!§! "</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,11 +4201,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> CREATE_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GKlicken, um eine neue Armeegruppe zu erstellen und ausgewählte Armeen zuzuweisen§!"</v>
+        <v> CREATE_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Klicken, um eine neue Armeegruppe zu erstellen und ausgewählte Armeen zuzuweisen §!§! "</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> CREATE_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GKlicken, um eine neue Armeegruppe zu erstellen und ausgewählte Armeen zuzuweisen§!"</v>
+        <v> CREATE_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Klicken, um eine neue Armeegruppe zu erstellen und ausgewählte Armeen zuzuweisen §!§! "</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,11 +4217,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> SELECT_GROUP_TOOLTIP: "§GKlicken§!, um auszuwählen"</v>
+        <v> SELECT_GROUP_TOOLTIP: "§G§G Klicken §!§! , um auszuwählen"</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> SELECT_GROUP_TOOLTIP: "§GKlicken§!, um auszuwählen"</v>
+        <v> SELECT_GROUP_TOOLTIP: "§G§G Klicken §!§! , um auszuwählen"</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,11 +4233,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> ATTACH_AIRWING_TO_GROUP_TOOLTIP: "§GRechtsklicken§!, um Luftgeschwader zu Armee zuzuweisen"</v>
+        <v> ATTACH_AIRWING_TO_GROUP_TOOLTIP: "§G§G Rechtsklicken §!§! , um Luftgeschwader zu Armee zuzuweisen"</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> ATTACH_AIRWING_TO_GROUP_TOOLTIP: "§GRechtsklicken§!, um Luftgeschwader zu Armee zuzuweisen"</v>
+        <v> ATTACH_AIRWING_TO_GROUP_TOOLTIP: "§G§G Rechtsklicken §!§! , um Luftgeschwader zu Armee zuzuweisen"</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> WING_CAN_NOT_ATTACH_ALREADY: "§RAlle Luftgeschwader sind bereits der Armee zugewiesen!§!"</v>
+        <v> WING_CAN_NOT_ATTACH_ALREADY: "§R§R Alle Luftgeschwader sind bereits der Armee zugewiesen! §!§! "</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> WING_CAN_NOT_ATTACH_ALREADY: "§RAlle Luftgeschwader sind bereits der Armee zugewiesen!§!"</v>
+        <v> WING_CAN_NOT_ATTACH_ALREADY: "§R§R Alle Luftgeschwader sind bereits der Armee zugewiesen! §!§! "</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,11 +4265,11 @@
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> WING_CAN_NOT_ATTACH_ARMY_GROUP: "§RLuftgeschwader können nur Armeen zugewiesen werden§!"</v>
+        <v> WING_CAN_NOT_ATTACH_ARMY_GROUP: "§R§R Luftgeschwader können nur Armeen zugewiesen werden §!§! "</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v> WING_CAN_NOT_ATTACH_ARMY_GROUP: "§RLuftgeschwader können nur Armeen zugewiesen werden§!"</v>
+        <v> WING_CAN_NOT_ATTACH_ARMY_GROUP: "§R§R Luftgeschwader können nur Armeen zugewiesen werden §!§! "</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,11 +4281,11 @@
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> WING_CAN_NOT_ATTACH_WRONG_TYPE: "§RMarinebomber und strategische Bomber können nicht Armeen zugewiesen werden§!"</v>
+        <v> WING_CAN_NOT_ATTACH_WRONG_TYPE: "§R§R Marinebomber und strategische Bomber können nicht Armeen zugewiesen werden §!§! "</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v> WING_CAN_NOT_ATTACH_WRONG_TYPE: "§RMarinebomber und strategische Bomber können nicht Armeen zugewiesen werden§!"</v>
+        <v> WING_CAN_NOT_ATTACH_WRONG_TYPE: "§R§R Marinebomber und strategische Bomber können nicht Armeen zugewiesen werden §!§! "</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,11 +4297,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> WING_CAN_NOT_ATTACH_TRAINING: "§RZuweisung nicht möglich, während §HPilotenübungen§! ausgeführt werden§!"</v>
+        <v> WING_CAN_NOT_ATTACH_TRAINING: "§R§R Zuweisung nicht möglich, während §H§H Pilotenübungen §!§!  ausgeführt werden §!§! "</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> WING_CAN_NOT_ATTACH_TRAINING: "§RZuweisung nicht möglich, während §HPilotenübungen§! ausgeführt werden§!"</v>
+        <v> WING_CAN_NOT_ATTACH_TRAINING: "§R§R Zuweisung nicht möglich, während §H§H Pilotenübungen §!§!  ausgeführt werden §!§! "</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,11 +4313,11 @@
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> SELECT_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YDivisionen§! zuzuweisen"</v>
+        <v> SELECT_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Divisionen §!§!  zuzuweisen"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> SELECT_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YDivisionen§! zuzuweisen"</v>
+        <v> SELECT_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Divisionen §!§!  zuzuweisen"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,11 +4329,11 @@
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> SELECT_GROUP_WITH_RAILWAY_GUNS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YEisenbahngeschütze§! zuzuweisen"</v>
+        <v> SELECT_GROUP_WITH_RAILWAY_GUNS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Eisenbahngeschütze §!§!  zuzuweisen"</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> SELECT_GROUP_WITH_RAILWAY_GUNS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YEisenbahngeschütze§! zuzuweisen"</v>
+        <v> SELECT_GROUP_WITH_RAILWAY_GUNS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Eisenbahngeschütze §!§!  zuzuweisen"</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,11 +4345,11 @@
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> SELECT_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YArmeen§! zuzuweisen"</v>
+        <v> SELECT_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Armeen §!§!  zuzuweisen"</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> SELECT_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YArmeen§! zuzuweisen"</v>
+        <v> SELECT_ARMY_GROUP_WITH_UNITS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Armeen §!§!  zuzuweisen"</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,11 +4361,11 @@
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> SELECT_GROUP_WITH_RWGS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YEisenbahngeschütze§! zuzuweisen"</v>
+        <v> SELECT_GROUP_WITH_RWGS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Eisenbahngeschütze §!§!  zuzuweisen"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> SELECT_GROUP_WITH_RWGS_SELECTED_TOOLTIP: "§GRechtsklicken§!, um die ausgewählten §YEisenbahngeschütze§! zuzuweisen"</v>
+        <v> SELECT_GROUP_WITH_RWGS_SELECTED_TOOLTIP: "§G§G Rechtsklicken §!§! , um die ausgewählten §Y§Y Eisenbahngeschütze §!§!  zuzuweisen"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,11 +4393,11 @@
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> COMMAND_GROUP_NO_ORDER_DESC: "\n£GFX_no_order_texticon §RArmee hat keinen Befehl.§!"</v>
+        <v> COMMAND_GROUP_NO_ORDER_DESC: "\n£GFX_no_order_texticon §R§R Armee hat keinen Befehl. §!§! "</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v> COMMAND_GROUP_NO_ORDER_DESC: "\n£GFX_no_order_texticon §RArmee hat keinen Befehl.§!"</v>
+        <v> COMMAND_GROUP_NO_ORDER_DESC: "\n£GFX_no_order_texticon §R§R Armee hat keinen Befehl. §!§! "</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,11 +4409,11 @@
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> COMMAND_GROUP_UNASSIGNED_DIVISIONS: "\n£GFX_no_order_texticon §RDivisionen, die keinem Befehl zugewiesen sind: §!$UNASSIGNED|Y$"</v>
+        <v> COMMAND_GROUP_UNASSIGNED_DIVISIONS: "\n£GFX_no_order_texticon §R§R Divisionen, die keinem Befehl zugewiesen sind:  §!§! $UNASSIGNED|Y$"</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> COMMAND_GROUP_UNASSIGNED_DIVISIONS: "\n£GFX_no_order_texticon §RDivisionen, die keinem Befehl zugewiesen sind: §!$UNASSIGNED|Y$"</v>
+        <v> COMMAND_GROUP_UNASSIGNED_DIVISIONS: "\n£GFX_no_order_texticon §R§R Divisionen, die keinem Befehl zugewiesen sind:  §!§! $UNASSIGNED|Y$"</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,11 +4505,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> OPERATION_RIGHT_CLICK_GROUP: "§GRechtsklicken, um Divisionen mit dieser Armee zu verknüpfen§!"</v>
+        <v> OPERATION_RIGHT_CLICK_GROUP: "§G§G Rechtsklicken, um Divisionen mit dieser Armee zu verknüpfen §!§! "</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> OPERATION_RIGHT_CLICK_GROUP: "§GRechtsklicken, um Divisionen mit dieser Armee zu verknüpfen§!"</v>
+        <v> OPERATION_RIGHT_CLICK_GROUP: "§G§G Rechtsklicken, um Divisionen mit dieser Armee zu verknüpfen §!§! "</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,11 +4649,11 @@
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> COMBAT_COMBAT_WIDTH_DESC: "§HGefechtsbreite§!\n Bestimmt, wie viele Divisionen auf jeder Seite in der Lage sind, in den Kampf einzugreifen. Wie viel Breite eine Division einnimmt, hängt von ihrem Entwurf ab. Durch den Angriff aus mehreren Richtungen können Sie die verfügbare Gesamtbreite erhöhen."</v>
+        <v> COMBAT_COMBAT_WIDTH_DESC: "§H§H Gefechtsbreite §!§! \n Bestimmt, wie viele Divisionen auf jeder Seite in der Lage sind, in den Kampf einzugreifen. Wie viel Breite eine Division einnimmt, hängt von ihrem Entwurf ab. Durch den Angriff aus mehreren Richtungen können Sie die verfügbare Gesamtbreite erhöhen."</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v> COMBAT_COMBAT_WIDTH_DESC: "§HGefechtsbreite§!\n Bestimmt, wie viele Divisionen auf jeder Seite in der Lage sind, in den Kampf einzugreifen. Wie viel Breite eine Division einnimmt, hängt von ihrem Entwurf ab. Durch den Angriff aus mehreren Richtungen können Sie die verfügbare Gesamtbreite erhöhen."</v>
+        <v> COMBAT_COMBAT_WIDTH_DESC: "§H§H Gefechtsbreite §!§! \n Bestimmt, wie viele Divisionen auf jeder Seite in der Lage sind, in den Kampf einzugreifen. Wie viel Breite eine Division einnimmt, hängt von ihrem Entwurf ab. Durch den Angriff aus mehreren Richtungen können Sie die verfügbare Gesamtbreite erhöhen."</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,11 +4681,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> COMBAT_WE_ARE_WINNING: "§GWir gewinnen diese Schlacht!§!"</v>
+        <v> COMBAT_WE_ARE_WINNING: "§G§G Wir gewinnen diese Schlacht! §!§! "</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> COMBAT_WE_ARE_WINNING: "§GWir gewinnen diese Schlacht!§!"</v>
+        <v> COMBAT_WE_ARE_WINNING: "§G§G Wir gewinnen diese Schlacht! §!§! "</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,11 +4697,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> COMBAT_WE_ARE_LOSING: "§RWir verlieren diese Schlacht!§!"</v>
+        <v> COMBAT_WE_ARE_LOSING: "§R§R Wir verlieren diese Schlacht! §!§! "</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> COMBAT_WE_ARE_LOSING: "§RWir verlieren diese Schlacht!§!"</v>
+        <v> COMBAT_WE_ARE_LOSING: "§R§R Wir verlieren diese Schlacht! §!§! "</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,11 +4745,11 @@
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> COMBAT_UNDECIDED: "§YDer Ausgang ist derzeit offen§!"</v>
+        <v> COMBAT_UNDECIDED: "§Y§Y Der Ausgang ist derzeit offen §!§! "</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v> COMBAT_UNDECIDED: "§YDer Ausgang ist derzeit offen§!"</v>
+        <v> COMBAT_UNDECIDED: "§Y§Y Der Ausgang ist derzeit offen §!§! "</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,11 +4953,11 @@
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> LAND_COMBAT_ATTACK_PROVINCE_MODIFIERS: "§HAngriffsmodifikatoren§! für $DIVISION|H$:"</v>
+        <v> LAND_COMBAT_ATTACK_PROVINCE_MODIFIERS: "§H§H Angriffsmodifikatoren §!§!  für $DIVISION|H$:"</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v> LAND_COMBAT_ATTACK_PROVINCE_MODIFIERS: "§HAngriffsmodifikatoren§! für $DIVISION|H$:"</v>
+        <v> LAND_COMBAT_ATTACK_PROVINCE_MODIFIERS: "§H§H Angriffsmodifikatoren §!§!  für $DIVISION|H$:"</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,11 +5113,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> NAVAL_COMBAT_CLICK_DESC: "§GKlicken, um das laufende Gefecht zu zeigen.§!\n§GRechtsklicken, um die Kamera zum Kampf zu bewegen.§!"</v>
+        <v> NAVAL_COMBAT_CLICK_DESC: "§G§G Klicken, um das laufende Gefecht zu zeigen. §!§! \n§G§G Rechtsklicken, um die Kamera zum Kampf zu bewegen. §!§! "</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v> NAVAL_COMBAT_CLICK_DESC: "§GKlicken, um das laufende Gefecht zu zeigen.§!\n§GRechtsklicken, um die Kamera zum Kampf zu bewegen.§!"</v>
+        <v> NAVAL_COMBAT_CLICK_DESC: "§G§G Klicken, um das laufende Gefecht zu zeigen. §!§! \n§G§G Rechtsklicken, um die Kamera zum Kampf zu bewegen. §!§! "</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,11 +5161,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> COMBAT_ATTACKER_WINNING: "§YDer Angreifer siegt.§!"</v>
+        <v> COMBAT_ATTACKER_WINNING: "§Y§Y Der Angreifer siegt. §!§! "</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> COMBAT_ATTACKER_WINNING: "§YDer Angreifer siegt.§!"</v>
+        <v> COMBAT_ATTACKER_WINNING: "§Y§Y Der Angreifer siegt. §!§! "</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,11 +5177,11 @@
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> COMBAT_DEFENDER_WINNING: "§YDer Verteidiger siegt.§!"</v>
+        <v> COMBAT_DEFENDER_WINNING: "§Y§Y Der Verteidiger siegt. §!§! "</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v> COMBAT_DEFENDER_WINNING: "§YDer Verteidiger siegt.§!"</v>
+        <v> COMBAT_DEFENDER_WINNING: "§Y§Y Der Verteidiger siegt. §!§! "</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,11 +5465,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> NAVAL_COMBAT_RESULT_SURVIVORS_DMG: "Überlebende (§WDurchschnittliche Stärke: $DMG|%0R$§!):"</v>
+        <v> NAVAL_COMBAT_RESULT_SURVIVORS_DMG: "Überlebende (§W§W Durchschnittliche Stärke: $DMG|%0R$ §!§! ):"</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> NAVAL_COMBAT_RESULT_SURVIVORS_DMG: "Überlebende (§WDurchschnittliche Stärke: $DMG|%0R$§!):"</v>
+        <v> NAVAL_COMBAT_RESULT_SURVIVORS_DMG: "Überlebende (§W§W Durchschnittliche Stärke: $DMG|%0R$ §!§! ):"</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5561,11 +5561,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> NAVAL_COMBAT_RESULT_SURVIVOR_CONVOYS: "$FLAG$ $COUNT|H$ §HKonvoi(s)§!"</v>
+        <v> NAVAL_COMBAT_RESULT_SURVIVOR_CONVOYS: "$FLAG$ $COUNT|H$ §H§H Konvoi(s) §!§! "</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> NAVAL_COMBAT_RESULT_SURVIVOR_CONVOYS: "$FLAG$ $COUNT|H$ §HKonvoi(s)§!"</v>
+        <v> NAVAL_COMBAT_RESULT_SURVIVOR_CONVOYS: "$FLAG$ $COUNT|H$ §H§H Konvoi(s) §!§! "</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,11 +5593,11 @@
       </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> LAND_COMBAT_CAS_INFO: "Abschüsse gesamt: $LOST|R$\n$STR|R0$ Schaden an §YStärke§! verursacht\n$ORG|R0$ Schaden an §YOrganisation§! verursacht"</v>
+        <v> LAND_COMBAT_CAS_INFO: "Abschüsse gesamt: $LOST|R$\n$STR|R0$ Schaden an §Y§Y Stärke §!§!  verursacht\n$ORG|R0$ Schaden an §Y§Y Organisation §!§!  verursacht"</v>
       </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v> LAND_COMBAT_CAS_INFO: "Abschüsse gesamt: $LOST|R$\n$STR|R0$ Schaden an §YStärke§! verursacht\n$ORG|R0$ Schaden an §YOrganisation§! verursacht"</v>
+        <v> LAND_COMBAT_CAS_INFO: "Abschüsse gesamt: $LOST|R$\n$STR|R0$ Schaden an §Y§Y Stärke §!§!  verursacht\n$ORG|R0$ Schaden an §Y§Y Organisation §!§!  verursacht"</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,11 +5609,11 @@
       </c>
       <c r="C190" s="1" t="str">
         <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v> LAND_COMBAT_CAS_INFO_TOOLTIP: "Etwa $NUM|Y$ Unterstützungsflugzeuge der Seite $SIDE$ konnten in diesem Kampf helfen.\nSie haben $ORG|G0$ Schaden an §YOrganisation§! verursacht. Die aktuelle §YOrganisation§! des Feindes beträgt $ORG_MAX|G0$.\nSie haben $STR|G0$ Schaden an §YStärke§! verursacht, die aktuelle §YStärke§! des Feindes beträgt $STR_MAX|G0$.\nDie §YFlugabwehr§! der feindlichen Divisionen konnte insgesamt $KILL|R$ Flugzeuge abschießen und $ORG_PREVENT|R0$ Schaden an §YOrganisation§! und $STR_PREVENT|R0$ Schaden an §YStärke§! verhindern."</v>
+        <v> LAND_COMBAT_CAS_INFO_TOOLTIP: "Etwa $NUM|Y$ Unterstützungsflugzeuge der Seite $SIDE$ konnten in diesem Kampf helfen.\nSie haben $ORG|G0$ Schaden an §Y§Y Organisation §!§!  verursacht. Die aktuelle §Y§Y Organisation §!§!  des Feindes beträgt $ORG_MAX|G0$.\nSie haben $STR|G0$ Schaden an §Y§Y Stärke §!§!  verursacht, die aktuelle §Y§Y Stärke §!§!  des Feindes beträgt $STR_MAX|G0$.\nDie §Y§Y Flugabwehr §!§!  der feindlichen Divisionen konnte insgesamt $KILL|R$ Flugzeuge abschießen und $ORG_PREVENT|R0$ Schaden an §Y§Y Organisation §!§!  und $STR_PREVENT|R0$ Schaden an §Y§Y Stärke §!§!  verhindern."</v>
       </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
-        <v> LAND_COMBAT_CAS_INFO_TOOLTIP: "Etwa $NUM|Y$ Unterstützungsflugzeuge der Seite $SIDE$ konnten in diesem Kampf helfen.\nSie haben $ORG|G0$ Schaden an §YOrganisation§! verursacht. Die aktuelle §YOrganisation§! des Feindes beträgt $ORG_MAX|G0$.\nSie haben $STR|G0$ Schaden an §YStärke§! verursacht, die aktuelle §YStärke§! des Feindes beträgt $STR_MAX|G0$.\nDie §YFlugabwehr§! der feindlichen Divisionen konnte insgesamt $KILL|R$ Flugzeuge abschießen und $ORG_PREVENT|R0$ Schaden an §YOrganisation§! und $STR_PREVENT|R0$ Schaden an §YStärke§! verhindern."</v>
+        <v> LAND_COMBAT_CAS_INFO_TOOLTIP: "Etwa $NUM|Y$ Unterstützungsflugzeuge der Seite $SIDE$ konnten in diesem Kampf helfen.\nSie haben $ORG|G0$ Schaden an §Y§Y Organisation §!§!  verursacht. Die aktuelle §Y§Y Organisation §!§!  des Feindes beträgt $ORG_MAX|G0$.\nSie haben $STR|G0$ Schaden an §Y§Y Stärke §!§!  verursacht, die aktuelle §Y§Y Stärke §!§!  des Feindes beträgt $STR_MAX|G0$.\nDie §Y§Y Flugabwehr §!§!  der feindlichen Divisionen konnte insgesamt $KILL|R$ Flugzeuge abschießen und $ORG_PREVENT|R0$ Schaden an §Y§Y Organisation §!§!  und $STR_PREVENT|R0$ Schaden an §Y§Y Stärke §!§!  verhindern."</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,11 +5673,11 @@
       </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> CARRIER_STACK_PENALTY_LORE: "§LDie ideale Zusammenstellung einer schnellen Trägerkampfgruppe besteht aus vier Flugzeugträgern, sechs bis acht Unterstützungsschiffen und mindestens 18 Zerstörern, vorzugsweise 24. Mehr als vier Flugzeugträger in einer Einsatzgruppe können aufgrund des benötigten Luftraums nicht zum Vorteil genutzt werden. Weniger als vier Flugzeugträger erfordern eine unwirtschaftliche Nutzung von Unterstützungs- und Aufklärungsschiffen.\nAdmiral Marc Mitscher§!"</v>
+        <v> CARRIER_STACK_PENALTY_LORE: "§L§L Die ideale Zusammenstellung einer schnellen Trägerkampfgruppe besteht aus vier Flugzeugträgern, sechs bis acht Unterstützungsschiffen und mindestens 18 Zerstörern, vorzugsweise 24. Mehr als vier Flugzeugträger in einer Einsatzgruppe können aufgrund des benötigten Luftraums nicht zum Vorteil genutzt werden. Weniger als vier Flugzeugträger erfordern eine unwirtschaftliche Nutzung von Unterstützungs- und Aufklärungsschiffen.\nAdmiral Marc Mitscher §!§! "</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v> CARRIER_STACK_PENALTY_LORE: "§LDie ideale Zusammenstellung einer schnellen Trägerkampfgruppe besteht aus vier Flugzeugträgern, sechs bis acht Unterstützungsschiffen und mindestens 18 Zerstörern, vorzugsweise 24. Mehr als vier Flugzeugträger in einer Einsatzgruppe können aufgrund des benötigten Luftraums nicht zum Vorteil genutzt werden. Weniger als vier Flugzeugträger erfordern eine unwirtschaftliche Nutzung von Unterstützungs- und Aufklärungsschiffen.\nAdmiral Marc Mitscher§!"</v>
+        <v> CARRIER_STACK_PENALTY_LORE: "§L§L Die ideale Zusammenstellung einer schnellen Trägerkampfgruppe besteht aus vier Flugzeugträgern, sechs bis acht Unterstützungsschiffen und mindestens 18 Zerstörern, vorzugsweise 24. Mehr als vier Flugzeugträger in einer Einsatzgruppe können aufgrund des benötigten Luftraums nicht zum Vorteil genutzt werden. Weniger als vier Flugzeugträger erfordern eine unwirtschaftliche Nutzung von Unterstützungs- und Aufklärungsschiffen.\nAdmiral Marc Mitscher §!§! "</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,11 +5817,11 @@
       </c>
       <c r="C203" s="1" t="str">
         <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v> MISSION_RESULT_LAST_MONTH: "Ergebnis letzte §H30§! Tage:"</v>
+        <v> MISSION_RESULT_LAST_MONTH: "Ergebnis letzte §H§H 30 §!§!  Tage:"</v>
       </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
-        <v> MISSION_RESULT_LAST_MONTH: "Ergebnis letzte §H30§! Tage:"</v>
+        <v> MISSION_RESULT_LAST_MONTH: "Ergebnis letzte §H§H 30 §!§!  Tage:"</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,11 +6256,11 @@
       </c>
       <c r="C231" s="1" t="str">
         <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v> COMBAT_EXILES_ON_CORES_DESC: "§HIns Exil verbannte Veteranen§! kämpfen in Kerngebiet. Angriff: $ATK_ON_CORE|%+$ Verteidigung: $DEF_ON_CORE|%+$."</v>
+        <v> COMBAT_EXILES_ON_CORES_DESC: "§H§H Ins Exil verbannte Veteranen §!§!  kämpfen in Kerngebiet. Angriff: $ATK_ON_CORE|%+$ Verteidigung: $DEF_ON_CORE|%+$."</v>
       </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
-        <v> COMBAT_EXILES_ON_CORES_DESC: "§HIns Exil verbannte Veteranen§! kämpfen in Kerngebiet. Angriff: $ATK_ON_CORE|%+$ Verteidigung: $DEF_ON_CORE|%+$."</v>
+        <v> COMBAT_EXILES_ON_CORES_DESC: "§H§H Ins Exil verbannte Veteranen §!§!  kämpfen in Kerngebiet. Angriff: $ATK_ON_CORE|%+$ Verteidigung: $DEF_ON_CORE|%+$."</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,11 +6272,11 @@
       </c>
       <c r="C232" s="1" t="str">
         <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v> COMBAT_EXILES_DESC: "§HIns Exil verbannte Veteranen§!: Kampfboni gegen $AMOUNT|H$ von $TOTAL|H$ feindlichen Divisionen."</v>
+        <v> COMBAT_EXILES_DESC: "§H§H Ins Exil verbannte Veteranen §!§! : Kampfboni gegen $AMOUNT|H$ von $TOTAL|H$ feindlichen Divisionen."</v>
       </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
-        <v> COMBAT_EXILES_DESC: "§HIns Exil verbannte Veteranen§!: Kampfboni gegen $AMOUNT|H$ von $TOTAL|H$ feindlichen Divisionen."</v>
+        <v> COMBAT_EXILES_DESC: "§H§H Ins Exil verbannte Veteranen §!§! : Kampfboni gegen $AMOUNT|H$ von $TOTAL|H$ feindlichen Divisionen."</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,11 +6528,11 @@
       </c>
       <c r="C248" s="1" t="str">
         <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v> CARRIER_EFFICIENCY_BAD: "§YTrägereffizienz§!: $VAL|R%$"</v>
+        <v> CARRIER_EFFICIENCY_BAD: "§Y§Y Trägereffizienz §!§! : $VAL|R%$"</v>
       </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
-        <v> CARRIER_EFFICIENCY_BAD: "§YTrägereffizienz§!: $VAL|R%$"</v>
+        <v> CARRIER_EFFICIENCY_BAD: "§Y§Y Trägereffizienz §!§! : $VAL|R%$"</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,11 +6672,11 @@
       </c>
       <c r="C257" s="1" t="str">
         <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v> UNIT_AMOUNT_PENALTY: "§RFührt zu viele Einheiten an. Alle Werte reduziert um $PENALTY|Y1%$§!"</v>
+        <v> UNIT_AMOUNT_PENALTY: "§R§R Führt zu viele Einheiten an. Alle Werte reduziert um $PENALTY|Y1%$ §!§! "</v>
       </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
-        <v> UNIT_AMOUNT_PENALTY: "§RFührt zu viele Einheiten an. Alle Werte reduziert um $PENALTY|Y1%$§!"</v>
+        <v> UNIT_AMOUNT_PENALTY: "§R§R Führt zu viele Einheiten an. Alle Werte reduziert um $PENALTY|Y1%$ §!§! "</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,11 +6688,11 @@
       </c>
       <c r="C258" s="1" t="str">
         <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v> ARMY_AMOUNT_PENALTY: "§RFührt zu viele Armeen an. Alle Werte werden reduziert um $PENALTY|Y1%$§!"</v>
+        <v> ARMY_AMOUNT_PENALTY: "§R§R Führt zu viele Armeen an. Alle Werte werden reduziert um $PENALTY|Y1%$ §!§! "</v>
       </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
-        <v> ARMY_AMOUNT_PENALTY: "§RFührt zu viele Armeen an. Alle Werte werden reduziert um $PENALTY|Y1%$§!"</v>
+        <v> ARMY_AMOUNT_PENALTY: "§R§R Führt zu viele Armeen an. Alle Werte werden reduziert um $PENALTY|Y1%$ §!§! "</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,11 +6784,11 @@
       </c>
       <c r="C264" s="1" t="str">
         <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v> LEADER_HAS_INITIATIVE: "§HInitiative!§!\nDiese Seite hat momentan die Initiative, weil ihre Divisionen über einen höheren Aufklärungswert verfügen oder ihr Anführer eine höhere Fähigkeitsstufe besitzt.\nDiese Seite erhält daher eine zusätzliche Gelegenheit, um eine bessere Taktik zu wählen."</v>
+        <v> LEADER_HAS_INITIATIVE: "§H§H Initiative! §!§! \nDiese Seite hat momentan die Initiative, weil ihre Divisionen über einen höheren Aufklärungswert verfügen oder ihr Anführer eine höhere Fähigkeitsstufe besitzt.\nDiese Seite erhält daher eine zusätzliche Gelegenheit, um eine bessere Taktik zu wählen."</v>
       </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
-        <v> LEADER_HAS_INITIATIVE: "§HInitiative!§!\nDiese Seite hat momentan die Initiative, weil ihre Divisionen über einen höheren Aufklärungswert verfügen oder ihr Anführer eine höhere Fähigkeitsstufe besitzt.\nDiese Seite erhält daher eine zusätzliche Gelegenheit, um eine bessere Taktik zu wählen."</v>
+        <v> LEADER_HAS_INITIATIVE: "§H§H Initiative! §!§! \nDiese Seite hat momentan die Initiative, weil ihre Divisionen über einen höheren Aufklärungswert verfügen oder ihr Anführer eine höhere Fähigkeitsstufe besitzt.\nDiese Seite erhält daher eine zusätzliche Gelegenheit, um eine bessere Taktik zu wählen."</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,11 +6992,11 @@
       </c>
       <c r="C277" s="1" t="str">
         <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v> COMBAT_LOG_LOSSES_IN_MP: "§HVerlorene Mannstärke:§! $NUM|*$"</v>
+        <v> COMBAT_LOG_LOSSES_IN_MP: "§H§H Verlorene Mannstärke: §!§!  $NUM|*$"</v>
       </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
-        <v> COMBAT_LOG_LOSSES_IN_MP: "§HVerlorene Mannstärke:§! $NUM|*$"</v>
+        <v> COMBAT_LOG_LOSSES_IN_MP: "§H§H Verlorene Mannstärke: §!§!  $NUM|*$"</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,11 +7008,11 @@
       </c>
       <c r="C278" s="1" t="str">
         <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v> COMBAT_LOG_ENEMY_EQ_LOST: "§HFeindliche Gefechtsverluste§!"</v>
+        <v> COMBAT_LOG_ENEMY_EQ_LOST: "§H§H Feindliche Gefechtsverluste §!§! "</v>
       </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
-        <v> COMBAT_LOG_ENEMY_EQ_LOST: "§HFeindliche Gefechtsverluste§!"</v>
+        <v> COMBAT_LOG_ENEMY_EQ_LOST: "§H§H Feindliche Gefechtsverluste §!§! "</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,11 +7024,11 @@
       </c>
       <c r="C279" s="1" t="str">
         <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v> COMBAT_LOG_EQ_LOST: "§HVerlorene Ausrüstung§!"</v>
+        <v> COMBAT_LOG_EQ_LOST: "§H§H Verlorene Ausrüstung §!§! "</v>
       </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
-        <v> COMBAT_LOG_EQ_LOST: "§HVerlorene Ausrüstung§!"</v>
+        <v> COMBAT_LOG_EQ_LOST: "§H§H Verlorene Ausrüstung §!§! "</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,11 +7088,11 @@
       </c>
       <c r="C283" s="1" t="str">
         <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v> COMBAT_LOG_LOSS_REASON_COMBAT: "§Him Gefecht§!"</v>
+        <v> COMBAT_LOG_LOSS_REASON_COMBAT: "§H§H im Gefecht §!§! "</v>
       </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
-        <v> COMBAT_LOG_LOSS_REASON_COMBAT: "§Him Gefecht§!"</v>
+        <v> COMBAT_LOG_LOSS_REASON_COMBAT: "§H§H im Gefecht §!§! "</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,11 +7104,11 @@
       </c>
       <c r="C284" s="1" t="str">
         <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v> COMBAT_LOG_RECOVERED: "§HZurückgeholt§!"</v>
+        <v> COMBAT_LOG_RECOVERED: "§H§H Zurückgeholt §!§! "</v>
       </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
-        <v> COMBAT_LOG_RECOVERED: "§HZurückgeholt§!"</v>
+        <v> COMBAT_LOG_RECOVERED: "§H§H Zurückgeholt §!§! "</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,11 +7120,11 @@
       </c>
       <c r="C285" s="1" t="str">
         <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v> COMBAT_LOG_LOSS_REASON_ATTRITION: "§Hdurch Verschleiß§!"</v>
+        <v> COMBAT_LOG_LOSS_REASON_ATTRITION: "§H§H durch Verschleiß §!§! "</v>
       </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
-        <v> COMBAT_LOG_LOSS_REASON_ATTRITION: "§Hdurch Verschleiß§!"</v>
+        <v> COMBAT_LOG_LOSS_REASON_ATTRITION: "§H§H durch Verschleiß §!§! "</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,11 +7136,11 @@
       </c>
       <c r="C286" s="1" t="str">
         <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v> COMBAT_LOG_TEMPLATES: "§HDivisionsvorlagen§!"</v>
+        <v> COMBAT_LOG_TEMPLATES: "§H§H Divisionsvorlagen §!§! "</v>
       </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
-        <v> COMBAT_LOG_TEMPLATES: "§HDivisionsvorlagen§!"</v>
+        <v> COMBAT_LOG_TEMPLATES: "§H§H Divisionsvorlagen §!§! "</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,11 +7184,11 @@
       </c>
       <c r="C289" s="1" t="str">
         <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v> EQUIPMENT_RECOVERY_ENTRY_GENERAL: "Von einer Division nach dem Gefecht zurückgeholte Ausrüstung. Je höher der Zuverlässigkeitswert eines Ausrüstungsgegenstands, desto höher auch die Chance, ihn zu retten. Wählen Sie die Ansicht §YDetaillierte Liste§!, um mehr Details zu einem Ausrüstungsgegenstand zu sehen."</v>
+        <v> EQUIPMENT_RECOVERY_ENTRY_GENERAL: "Von einer Division nach dem Gefecht zurückgeholte Ausrüstung. Je höher der Zuverlässigkeitswert eines Ausrüstungsgegenstands, desto höher auch die Chance, ihn zu retten. Wählen Sie die Ansicht §Y§Y Detaillierte Liste §!§! , um mehr Details zu einem Ausrüstungsgegenstand zu sehen."</v>
       </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
-        <v> EQUIPMENT_RECOVERY_ENTRY_GENERAL: "Von einer Division nach dem Gefecht zurückgeholte Ausrüstung. Je höher der Zuverlässigkeitswert eines Ausrüstungsgegenstands, desto höher auch die Chance, ihn zu retten. Wählen Sie die Ansicht §YDetaillierte Liste§!, um mehr Details zu einem Ausrüstungsgegenstand zu sehen."</v>
+        <v> EQUIPMENT_RECOVERY_ENTRY_GENERAL: "Von einer Division nach dem Gefecht zurückgeholte Ausrüstung. Je höher der Zuverlässigkeitswert eines Ausrüstungsgegenstands, desto höher auch die Chance, ihn zu retten. Wählen Sie die Ansicht §Y§Y Detaillierte Liste §!§! , um mehr Details zu einem Ausrüstungsgegenstand zu sehen."</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="C292" s="1" t="str">
         <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v> COMBAT_LOG_COMBATS_WON: "§Hgewonnen§!"</v>
+        <v> COMBAT_LOG_COMBATS_WON: "§H§H gewonnen §!§! "</v>
       </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
-        <v> COMBAT_LOG_COMBATS_WON: "§Hgewonnen§!"</v>
+        <v> COMBAT_LOG_COMBATS_WON: "§H§H gewonnen §!§! "</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7264,11 +7264,11 @@
       </c>
       <c r="C294" s="1" t="str">
         <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v> COMBAT_LOG_COMBATS_TOTAL: "§Hausgetragen§!"</v>
+        <v> COMBAT_LOG_COMBATS_TOTAL: "§H§H ausgetragen §!§! "</v>
       </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
-        <v> COMBAT_LOG_COMBATS_TOTAL: "§Hausgetragen§!"</v>
+        <v> COMBAT_LOG_COMBATS_TOTAL: "§H§H ausgetragen §!§! "</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,11 +7360,11 @@
       </c>
       <c r="C300" s="1" t="str">
         <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_ATTACKER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §HAngreifer§!."</v>
+        <v> COMBAT_LOG_BATTLE_ATTACKER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §H§H Angreifer §!§! ."</v>
       </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
-        <v> COMBAT_LOG_BATTLE_ATTACKER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §HAngreifer§!."</v>
+        <v> COMBAT_LOG_BATTLE_ATTACKER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §H§H Angreifer §!§! ."</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,11 +7376,11 @@
       </c>
       <c r="C301" s="1" t="str">
         <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_DEFENDER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §HVerteidiger§!."</v>
+        <v> COMBAT_LOG_BATTLE_DEFENDER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §H§H Verteidiger §!§! ."</v>
       </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
-        <v> COMBAT_LOG_BATTLE_DEFENDER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §HVerteidiger§!."</v>
+        <v> COMBAT_LOG_BATTLE_DEFENDER_DESC: "Unsere Divisionen standen in diesem Gefecht auf der Seite der §H§H Verteidiger §!§! ."</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,11 +7392,11 @@
       </c>
       <c r="C302" s="1" t="str">
         <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_OVERRUN_WIN: "Die feindlichen Divisionen wurden von uns §Hüberlaufen§!."</v>
+        <v> COMBAT_LOG_BATTLE_OVERRUN_WIN: "Die feindlichen Divisionen wurden von uns §H§H überlaufen §!§! ."</v>
       </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
-        <v> COMBAT_LOG_BATTLE_OVERRUN_WIN: "Die feindlichen Divisionen wurden von uns §Hüberlaufen§!."</v>
+        <v> COMBAT_LOG_BATTLE_OVERRUN_WIN: "Die feindlichen Divisionen wurden von uns §H§H überlaufen §!§! ."</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,11 +7408,11 @@
       </c>
       <c r="C303" s="1" t="str">
         <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_OVERRUN_LOSS: "Unsere Divisionen wurden vom Feind §Hüberlaufen§!."</v>
+        <v> COMBAT_LOG_BATTLE_OVERRUN_LOSS: "Unsere Divisionen wurden vom Feind §H§H überlaufen §!§! ."</v>
       </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
-        <v> COMBAT_LOG_BATTLE_OVERRUN_LOSS: "Unsere Divisionen wurden vom Feind §Hüberlaufen§!."</v>
+        <v> COMBAT_LOG_BATTLE_OVERRUN_LOSS: "Unsere Divisionen wurden vom Feind §H§H überlaufen §!§! ."</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="C304" s="1" t="str">
         <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v> COMBAT_LOG_OVERRUN_DESC: "Wenn eine Division §Hüberlaufen§! wird, wird sie vollkommen zerstört. Das geschieht, wenn eine Division sich in eine Provinz zurückzieht, die dann in feindliche Hände fällt."</v>
+        <v> COMBAT_LOG_OVERRUN_DESC: "Wenn eine Division §H§H überlaufen §!§!  wird, wird sie vollkommen zerstört. Das geschieht, wenn eine Division sich in eine Provinz zurückzieht, die dann in feindliche Hände fällt."</v>
       </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
-        <v> COMBAT_LOG_OVERRUN_DESC: "Wenn eine Division §Hüberlaufen§! wird, wird sie vollkommen zerstört. Das geschieht, wenn eine Division sich in eine Provinz zurückzieht, die dann in feindliche Hände fällt."</v>
+        <v> COMBAT_LOG_OVERRUN_DESC: "Wenn eine Division §H§H überlaufen §!§!  wird, wird sie vollkommen zerstört. Das geschieht, wenn eine Division sich in eine Provinz zurückzieht, die dann in feindliche Hände fällt."</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,11 +7440,11 @@
       </c>
       <c r="C305" s="1" t="str">
         <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_WE_LOST: "\n§RWir haben verloren!§!"</v>
+        <v> COMBAT_LOG_BATTLE_WE_LOST: "\n§R§R Wir haben verloren! §!§! "</v>
       </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
-        <v> COMBAT_LOG_BATTLE_WE_LOST: "\n§RWir haben verloren!§!"</v>
+        <v> COMBAT_LOG_BATTLE_WE_LOST: "\n§R§R Wir haben verloren! §!§! "</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,11 +7456,11 @@
       </c>
       <c r="C306" s="1" t="str">
         <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_WE_WON: "\n§GWir haben gewonnen!§!"</v>
+        <v> COMBAT_LOG_BATTLE_WE_WON: "\n§G§G Wir haben gewonnen! §!§! "</v>
       </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
-        <v> COMBAT_LOG_BATTLE_WE_WON: "\n§GWir haben gewonnen!§!"</v>
+        <v> COMBAT_LOG_BATTLE_WE_WON: "\n§G§G Wir haben gewonnen! §!§! "</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,11 +7504,11 @@
       </c>
       <c r="C309" s="1" t="str">
         <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_TIME_HOURS: "Vor $NUM|G$ §HStunden§!."</v>
+        <v> COMBAT_LOG_BATTLE_TIME_HOURS: "Vor $NUM|G$ §H§H Stunden §!§! ."</v>
       </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
-        <v> COMBAT_LOG_BATTLE_TIME_HOURS: "Vor $NUM|G$ §HStunden§!."</v>
+        <v> COMBAT_LOG_BATTLE_TIME_HOURS: "Vor $NUM|G$ §H§H Stunden §!§! ."</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7520,11 +7520,11 @@
       </c>
       <c r="C310" s="1" t="str">
         <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_TIME_DAYS: "Vor $NUM|G$ §HTagen§!."</v>
+        <v> COMBAT_LOG_BATTLE_TIME_DAYS: "Vor $NUM|G$ §H§H Tagen §!§! ."</v>
       </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
-        <v> COMBAT_LOG_BATTLE_TIME_DAYS: "Vor $NUM|G$ §HTagen§!."</v>
+        <v> COMBAT_LOG_BATTLE_TIME_DAYS: "Vor $NUM|G$ §H§H Tagen §!§! ."</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,11 +7536,11 @@
       </c>
       <c r="C311" s="1" t="str">
         <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_TIME_MONTHS: "Vor $NUM|G$ §HMonaten§!."</v>
+        <v> COMBAT_LOG_BATTLE_TIME_MONTHS: "Vor $NUM|G$ §H§H Monaten §!§! ."</v>
       </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
-        <v> COMBAT_LOG_BATTLE_TIME_MONTHS: "Vor $NUM|G$ §HMonaten§!."</v>
+        <v> COMBAT_LOG_BATTLE_TIME_MONTHS: "Vor $NUM|G$ §H§H Monaten §!§! ."</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C318" s="1" t="str">
         <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v> COMBAT_LOG_BATTLE_PART_COUNTRIES: "§HBeteiligte Länder:§!"</v>
+        <v> COMBAT_LOG_BATTLE_PART_COUNTRIES: "§H§H Beteiligte Länder: §!§! "</v>
       </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
-        <v> COMBAT_LOG_BATTLE_PART_COUNTRIES: "§HBeteiligte Länder:§!"</v>
+        <v> COMBAT_LOG_BATTLE_PART_COUNTRIES: "§H§H Beteiligte Länder: §!§! "</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="C319" s="1" t="str">
         <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v> COMBAT_LOG_MP_LOST_DESC: "§HMannstärke verloren§!\nDurch feindliche Bodentruppen: $GND|R$\nDurch feindliche Flugzeuge verloren: $AIR|R$"</v>
+        <v> COMBAT_LOG_MP_LOST_DESC: "§H§H Mannstärke verloren §!§! \nDurch feindliche Bodentruppen: $GND|R$\nDurch feindliche Flugzeuge verloren: $AIR|R$"</v>
       </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
-        <v> COMBAT_LOG_MP_LOST_DESC: "§HMannstärke verloren§!\nDurch feindliche Bodentruppen: $GND|R$\nDurch feindliche Flugzeuge verloren: $AIR|R$"</v>
+        <v> COMBAT_LOG_MP_LOST_DESC: "§H§H Mannstärke verloren §!§! \nDurch feindliche Bodentruppen: $GND|R$\nDurch feindliche Flugzeuge verloren: $AIR|R$"</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7696,11 +7696,11 @@
       </c>
       <c r="C321" s="1" t="str">
         <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v> COMBAT_LOG_MP_LOST_WITH_NAVY_DESC: "§HMannstärke verloren§!\nVerluste durch feindliche Bodentruppen: $GND|R$\nVerluste durch feindliche Flugzeuge: $AIR|R$\nVerluste durch feindliche Marine: $NAVY|R$"</v>
+        <v> COMBAT_LOG_MP_LOST_WITH_NAVY_DESC: "§H§H Mannstärke verloren §!§! \nVerluste durch feindliche Bodentruppen: $GND|R$\nVerluste durch feindliche Flugzeuge: $AIR|R$\nVerluste durch feindliche Marine: $NAVY|R$"</v>
       </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
-        <v> COMBAT_LOG_MP_LOST_WITH_NAVY_DESC: "§HMannstärke verloren§!\nVerluste durch feindliche Bodentruppen: $GND|R$\nVerluste durch feindliche Flugzeuge: $AIR|R$\nVerluste durch feindliche Marine: $NAVY|R$"</v>
+        <v> COMBAT_LOG_MP_LOST_WITH_NAVY_DESC: "§H§H Mannstärke verloren §!§! \nVerluste durch feindliche Bodentruppen: $GND|R$\nVerluste durch feindliche Flugzeuge: $AIR|R$\nVerluste durch feindliche Marine: $NAVY|R$"</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,11 +7712,11 @@
       </c>
       <c r="C322" s="1" t="str">
         <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v> COMBAT_LOG_EQ_CAPTURED: "§HAusrüstung erobert§!"</v>
+        <v> COMBAT_LOG_EQ_CAPTURED: "§H§H Ausrüstung erobert §!§! "</v>
       </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
-        <v> COMBAT_LOG_EQ_CAPTURED: "§HAusrüstung erobert§!"</v>
+        <v> COMBAT_LOG_EQ_CAPTURED: "§H§H Ausrüstung erobert §!§! "</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,11 +7824,11 @@
       </c>
       <c r="C329" s="1" t="str">
         <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v> BORDER_CONFLICT_IF_YOU_WIN: "§HWenn Sie gewinnen:§!"</v>
+        <v> BORDER_CONFLICT_IF_YOU_WIN: "§H§H Wenn Sie gewinnen: §!§! "</v>
       </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
-        <v> BORDER_CONFLICT_IF_YOU_WIN: "§HWenn Sie gewinnen:§!"</v>
+        <v> BORDER_CONFLICT_IF_YOU_WIN: "§H§H Wenn Sie gewinnen: §!§! "</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,11 +7840,11 @@
       </c>
       <c r="C330" s="1" t="str">
         <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v> BORDER_CONFLICT_IF_YOU_LOSE: "§HWenn Sie verlieren:§!"</v>
+        <v> BORDER_CONFLICT_IF_YOU_LOSE: "§H§H Wenn Sie verlieren: §!§! "</v>
       </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
-        <v> BORDER_CONFLICT_IF_YOU_LOSE: "§HWenn Sie verlieren:§!"</v>
+        <v> BORDER_CONFLICT_IF_YOU_LOSE: "§H§H Wenn Sie verlieren: §!§! "</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,11 +7904,11 @@
       </c>
       <c r="C334" s="1" t="str">
         <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v> DISENGAGE_FROM_COMBAT: "§HAbziehen§!\n\nZiehen Sie Ihre Einsatzgruppen vom Kampf ab."</v>
+        <v> DISENGAGE_FROM_COMBAT: "§H§H Abziehen §!§! \n\nZiehen Sie Ihre Einsatzgruppen vom Kampf ab."</v>
       </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
-        <v> DISENGAGE_FROM_COMBAT: "§HAbziehen§!\n\nZiehen Sie Ihre Einsatzgruppen vom Kampf ab."</v>
+        <v> DISENGAGE_FROM_COMBAT: "§H§H Abziehen §!§! \n\nZiehen Sie Ihre Einsatzgruppen vom Kampf ab."</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,11 +8160,11 @@
       </c>
       <c r="C350" s="1" t="str">
         <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v> combat_stat_depth_charges_info: "§HWasserbomben§!\n\nWasserbomben werden gegen U-Boote eingesetzt, die von anderen Waffentypen nicht angegriffen werden können.\n"</v>
+        <v> combat_stat_depth_charges_info: "§H§H Wasserbomben §!§! \n\nWasserbomben werden gegen U-Boote eingesetzt, die von anderen Waffentypen nicht angegriffen werden können.\n"</v>
       </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
-        <v> combat_stat_depth_charges_info: "§HWasserbomben§!\n\nWasserbomben werden gegen U-Boote eingesetzt, die von anderen Waffentypen nicht angegriffen werden können.\n"</v>
+        <v> combat_stat_depth_charges_info: "§H§H Wasserbomben §!§! \n\nWasserbomben werden gegen U-Boote eingesetzt, die von anderen Waffentypen nicht angegriffen werden können.\n"</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8176,11 +8176,11 @@
       </c>
       <c r="C351" s="1" t="str">
         <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v> combat_stat_light_guns_info: "§HLeichte Geschütze§!\n\nLeichte Geschütze sind effektiver gegen §YGeleitschiffen§!. Die leichten Geschütze Ihrer Flotte zielen auf den Feind, der sich am wenigsten weit entfernt befindet. \n"</v>
+        <v> combat_stat_light_guns_info: "§H§H Leichte Geschütze §!§! \n\nLeichte Geschütze sind effektiver gegen §Y§Y Geleitschiffen §!§! . Die leichten Geschütze Ihrer Flotte zielen auf den Feind, der sich am wenigsten weit entfernt befindet. \n"</v>
       </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
-        <v> combat_stat_light_guns_info: "§HLeichte Geschütze§!\n\nLeichte Geschütze sind effektiver gegen §YGeleitschiffen§!. Die leichten Geschütze Ihrer Flotte zielen auf den Feind, der sich am wenigsten weit entfernt befindet. \n"</v>
+        <v> combat_stat_light_guns_info: "§H§H Leichte Geschütze §!§! \n\nLeichte Geschütze sind effektiver gegen §Y§Y Geleitschiffen §!§! . Die leichten Geschütze Ihrer Flotte zielen auf den Feind, der sich am wenigsten weit entfernt befindet. \n"</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8192,11 +8192,11 @@
       </c>
       <c r="C352" s="1" t="str">
         <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v> combat_stat_heavy_guns_info: "§HSchwere Geschütze§!\n\nSchwere Geschütze sind effektiver gegen §YGroßkampfschiffe§!. Sie können die zwei am wenigsten weit entfernten Feindesgruppen erreichen und und zielen bevorzugt auf größere Ziele.\n"</v>
+        <v> combat_stat_heavy_guns_info: "§H§H Schwere Geschütze §!§! \n\nSchwere Geschütze sind effektiver gegen §Y§Y Großkampfschiffe §!§! . Sie können die zwei am wenigsten weit entfernten Feindesgruppen erreichen und und zielen bevorzugt auf größere Ziele.\n"</v>
       </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
-        <v> combat_stat_heavy_guns_info: "§HSchwere Geschütze§!\n\nSchwere Geschütze sind effektiver gegen §YGroßkampfschiffe§!. Sie können die zwei am wenigsten weit entfernten Feindesgruppen erreichen und und zielen bevorzugt auf größere Ziele.\n"</v>
+        <v> combat_stat_heavy_guns_info: "§H§H Schwere Geschütze §!§! \n\nSchwere Geschütze sind effektiver gegen §Y§Y Großkampfschiffe §!§! . Sie können die zwei am wenigsten weit entfernten Feindesgruppen erreichen und und zielen bevorzugt auf größere Ziele.\n"</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,11 +8208,11 @@
       </c>
       <c r="C353" s="1" t="str">
         <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v> combat_stat_anti_air: "§HFottenflugabwehr§!\n\nDie Flottenflugabwehr wird berechnet, indem die gesamte Flugabwehr der gesamten Flotte berücksichtigt wird. Sie wird genutzt, um feindliche Bomber zu stören, die die Flotte angreifen, und auch um ihren Schaden zu verringern.\n\\\" combat_stat_torpedoes_info: \"§HTorpedo§!\n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §YGroßkampfschiffe§!. Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §YSchutzeffizienz§! ab.\n"</v>
+        <v> combat_stat_anti_air: "§H§H Fottenflugabwehr §!§! \n\nDie Flottenflugabwehr wird berechnet, indem die gesamte Flugabwehr der gesamten Flotte berücksichtigt wird. Sie wird genutzt, um feindliche Bomber zu stören, die die Flotte angreifen, und auch um ihren Schaden zu verringern.\n\\\" combat_stat_torpedoes_info: \"§H§H Torpedo §!§! \n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §Y§Y Großkampfschiffe §!§! . Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §Y§Y Schutzeffizienz §!§!  ab.\n"</v>
       </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
-        <v> combat_stat_anti_air: "§HFottenflugabwehr§!\n\nDie Flottenflugabwehr wird berechnet, indem die gesamte Flugabwehr der gesamten Flotte berücksichtigt wird. Sie wird genutzt, um feindliche Bomber zu stören, die die Flotte angreifen, und auch um ihren Schaden zu verringern.\n\\\" combat_stat_torpedoes_info: \"§HTorpedo§!\n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §YGroßkampfschiffe§!. Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §YSchutzeffizienz§! ab.\n"</v>
+        <v> combat_stat_anti_air: "§H§H Fottenflugabwehr §!§! \n\nDie Flottenflugabwehr wird berechnet, indem die gesamte Flugabwehr der gesamten Flotte berücksichtigt wird. Sie wird genutzt, um feindliche Bomber zu stören, die die Flotte angreifen, und auch um ihren Schaden zu verringern.\n\\\" combat_stat_torpedoes_info: \"§H§H Torpedo §!§! \n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §Y§Y Großkampfschiffe §!§! . Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §Y§Y Schutzeffizienz §!§!  ab.\n"</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,11 +8224,11 @@
       </c>
       <c r="C354" s="1" t="str">
         <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v> combat_stat_torpedoes_info: "§HTorpedo§!\n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §YGroßkampfschiffe§!. Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §YSchutzeffizienz§! ab.\n"</v>
+        <v> combat_stat_torpedoes_info: "§H§H Torpedo §!§! \n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §Y§Y Großkampfschiffe §!§! . Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §Y§Y Schutzeffizienz §!§!  ab.\n"</v>
       </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
-        <v> combat_stat_torpedoes_info: "§HTorpedo§!\n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §YGroßkampfschiffe§!. Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §YSchutzeffizienz§! ab.\n"</v>
+        <v> combat_stat_torpedoes_info: "§H§H Torpedo §!§! \n\nTorpedos ignorieren Panzerung und sind sehr viel effektiver gegen §Y§Y Großkampfschiffe §!§! . Die Anzahl an Torpedos, die auf den Feind abgeschossen werden, hängt von dessen §Y§Y Schutzeffizienz §!§!  ab.\n"</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,11 +8240,11 @@
       </c>
       <c r="C355" s="1" t="str">
         <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v> screening_efficiency_info: "§HSchutzeffizienz§!\n\nEine hohe  §YSchutzeffizienz§! verteidigt Ihre §YGroßkampfschiffe§! gegen feindliche Torpedos. Ihre Flugzeugträger werden sowohl von Ihren Großkampfschiffen als auch von Ihren Geleitschiffen geschützt. Großkampfschiffe werden nur von Ihren Geleitschiffen geschützt.\n"</v>
+        <v> screening_efficiency_info: "§H§H Schutzeffizienz §!§! \n\nEine hohe  §Y§Y Schutzeffizienz §!§!  verteidigt Ihre §Y§Y Großkampfschiffe §!§!  gegen feindliche Torpedos. Ihre Flugzeugträger werden sowohl von Ihren Großkampfschiffen als auch von Ihren Geleitschiffen geschützt. Großkampfschiffe werden nur von Ihren Geleitschiffen geschützt.\n"</v>
       </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
-        <v> screening_efficiency_info: "§HSchutzeffizienz§!\n\nEine hohe  §YSchutzeffizienz§! verteidigt Ihre §YGroßkampfschiffe§! gegen feindliche Torpedos. Ihre Flugzeugträger werden sowohl von Ihren Großkampfschiffen als auch von Ihren Geleitschiffen geschützt. Großkampfschiffe werden nur von Ihren Geleitschiffen geschützt.\n"</v>
+        <v> screening_efficiency_info: "§H§H Schutzeffizienz §!§! \n\nEine hohe  §Y§Y Schutzeffizienz §!§!  verteidigt Ihre §Y§Y Großkampfschiffe §!§!  gegen feindliche Torpedos. Ihre Flugzeugträger werden sowohl von Ihren Großkampfschiffen als auch von Ihren Geleitschiffen geschützt. Großkampfschiffe werden nur von Ihren Geleitschiffen geschützt.\n"</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8256,11 +8256,11 @@
       </c>
       <c r="C356" s="1" t="str">
         <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v> POSITIONING_INFO: "Die §HPositionierung§! ist ein Maß dafür, wie gut Ihre Flotte im Vergleich zum Feind positioniert ist. Sie wird beeinflusst von der relativen Größe der Flotten, dem Wetter und den Fähigkeiten des Anführers. Die Schiffe, die nach Beginn des Gefechts einsteigen, werden mit einem vorübergehenden Positionierungsmalus belegt.\n\nWenn die Positionierung unter 100% liegt, wird die Flotte mit verschiedenen Mali belegt.\n"</v>
+        <v> POSITIONING_INFO: "Die §H§H Positionierung §!§!  ist ein Maß dafür, wie gut Ihre Flotte im Vergleich zum Feind positioniert ist. Sie wird beeinflusst von der relativen Größe der Flotten, dem Wetter und den Fähigkeiten des Anführers. Die Schiffe, die nach Beginn des Gefechts einsteigen, werden mit einem vorübergehenden Positionierungsmalus belegt.\n\nWenn die Positionierung unter 100% liegt, wird die Flotte mit verschiedenen Mali belegt.\n"</v>
       </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
-        <v> POSITIONING_INFO: "Die §HPositionierung§! ist ein Maß dafür, wie gut Ihre Flotte im Vergleich zum Feind positioniert ist. Sie wird beeinflusst von der relativen Größe der Flotten, dem Wetter und den Fähigkeiten des Anführers. Die Schiffe, die nach Beginn des Gefechts einsteigen, werden mit einem vorübergehenden Positionierungsmalus belegt.\n\nWenn die Positionierung unter 100% liegt, wird die Flotte mit verschiedenen Mali belegt.\n"</v>
+        <v> POSITIONING_INFO: "Die §H§H Positionierung §!§!  ist ein Maß dafür, wie gut Ihre Flotte im Vergleich zum Feind positioniert ist. Sie wird beeinflusst von der relativen Größe der Flotten, dem Wetter und den Fähigkeiten des Anführers. Die Schiffe, die nach Beginn des Gefechts einsteigen, werden mit einem vorübergehenden Positionierungsmalus belegt.\n\nWenn die Positionierung unter 100% liegt, wird die Flotte mit verschiedenen Mali belegt.\n"</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8576,11 +8576,11 @@
       </c>
       <c r="C376" s="1" t="str">
         <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_SCREEN_BOX: "Schutzeffizienz hinter §YGeleitgruppe§!: $NUM|%.0H$"</v>
+        <v> SCREENING_TOOLTIP_SCREEN_BOX: "Schutzeffizienz hinter §Y§Y Geleitgruppe §!§! : $NUM|%.0H$"</v>
       </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
-        <v> SCREENING_TOOLTIP_SCREEN_BOX: "Schutzeffizienz hinter §YGeleitgruppe§!: $NUM|%.0H$"</v>
+        <v> SCREENING_TOOLTIP_SCREEN_BOX: "Schutzeffizienz hinter §Y§Y Geleitgruppe §!§! : $NUM|%.0H$"</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,11 +8592,11 @@
       </c>
       <c r="C377" s="1" t="str">
         <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_CAPITAL_BOX: "Schutzeffizienz hinter §YSchlachtlinie§!: $NUM|%.0H$"</v>
+        <v> SCREENING_TOOLTIP_CAPITAL_BOX: "Schutzeffizienz hinter §Y§Y Schlachtlinie §!§! : $NUM|%.0H$"</v>
       </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
-        <v> SCREENING_TOOLTIP_CAPITAL_BOX: "Schutzeffizienz hinter §YSchlachtlinie§!: $NUM|%.0H$"</v>
+        <v> SCREENING_TOOLTIP_CAPITAL_BOX: "Schutzeffizienz hinter §Y§Y Schlachtlinie §!§! : $NUM|%.0H$"</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8608,11 +8608,11 @@
       </c>
       <c r="C378" s="1" t="str">
         <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_CAPITAL_BOX_COMBINED: "Kombinierte Schutzeffizienz hinter §YSchlachtlinie§!: $NUM|%.0H$"</v>
+        <v> SCREENING_TOOLTIP_CAPITAL_BOX_COMBINED: "Kombinierte Schutzeffizienz hinter §Y§Y Schlachtlinie §!§! : $NUM|%.0H$"</v>
       </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
-        <v> SCREENING_TOOLTIP_CAPITAL_BOX_COMBINED: "Kombinierte Schutzeffizienz hinter §YSchlachtlinie§!: $NUM|%.0H$"</v>
+        <v> SCREENING_TOOLTIP_CAPITAL_BOX_COMBINED: "Kombinierte Schutzeffizienz hinter §Y§Y Schlachtlinie §!§! : $NUM|%.0H$"</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8624,11 +8624,11 @@
       </c>
       <c r="C379" s="1" t="str">
         <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_FOR_SCREEN_BOX: "Ihre $NUM_CAPI|.0H$ §YGroßkampfschiffe§!, $NUM_CARR|.0H$ §YFlugzeugträger§! und $NUM_CONV|.0H$ §YKonvois§! benötigen $NUM_NEED|.0H$ §YSchutzschiffe§!, um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_SCRE|.0H$ §YSchutzschiffe§!."</v>
+        <v> SCREENING_TOOLTIP_FOR_SCREEN_BOX: "Ihre $NUM_CAPI|.0H$ §Y§Y Großkampfschiffe §!§! , $NUM_CARR|.0H$ §Y§Y Flugzeugträger §!§!  und $NUM_CONV|.0H$ §Y§Y Konvois §!§!  benötigen $NUM_NEED|.0H$ §Y§Y Schutzschiffe §!§! , um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_SCRE|.0H$ §Y§Y Schutzschiffe §!§! ."</v>
       </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
-        <v> SCREENING_TOOLTIP_FOR_SCREEN_BOX: "Ihre $NUM_CAPI|.0H$ §YGroßkampfschiffe§!, $NUM_CARR|.0H$ §YFlugzeugträger§! und $NUM_CONV|.0H$ §YKonvois§! benötigen $NUM_NEED|.0H$ §YSchutzschiffe§!, um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_SCRE|.0H$ §YSchutzschiffe§!."</v>
+        <v> SCREENING_TOOLTIP_FOR_SCREEN_BOX: "Ihre $NUM_CAPI|.0H$ §Y§Y Großkampfschiffe §!§! , $NUM_CARR|.0H$ §Y§Y Flugzeugträger §!§!  und $NUM_CONV|.0H$ §Y§Y Konvois §!§!  benötigen $NUM_NEED|.0H$ §Y§Y Schutzschiffe §!§! , um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_SCRE|.0H$ §Y§Y Schutzschiffe §!§! ."</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,11 +8640,11 @@
       </c>
       <c r="C380" s="1" t="str">
         <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_FOR_CAPITAL_BOX: "Ihre $NUM_CARR|.0H$ §YFlugzeugträger§! und $NUM_CONV|.0H$ §YKonvois§! benötigen $NUM_NEED|.0H$ §YGroßkampfschiffe§!, um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_CAPI|.0H$ §YGroßkampfschiffe§!."</v>
+        <v> SCREENING_TOOLTIP_FOR_CAPITAL_BOX: "Ihre $NUM_CARR|.0H$ §Y§Y Flugzeugträger §!§!  und $NUM_CONV|.0H$ §Y§Y Konvois §!§!  benötigen $NUM_NEED|.0H$ §Y§Y Großkampfschiffe §!§! , um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_CAPI|.0H$ §Y§Y Großkampfschiffe §!§! ."</v>
       </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
-        <v> SCREENING_TOOLTIP_FOR_CAPITAL_BOX: "Ihre $NUM_CARR|.0H$ §YFlugzeugträger§! und $NUM_CONV|.0H$ §YKonvois§! benötigen $NUM_NEED|.0H$ §YGroßkampfschiffe§!, um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_CAPI|.0H$ §YGroßkampfschiffe§!."</v>
+        <v> SCREENING_TOOLTIP_FOR_CAPITAL_BOX: "Ihre $NUM_CARR|.0H$ §Y§Y Flugzeugträger §!§!  und $NUM_CONV|.0H$ §Y§Y Konvois §!§!  benötigen $NUM_NEED|.0H$ §Y§Y Großkampfschiffe §!§! , um vollständig geschützt zu sein. Derzeit besitzen Sie nur $NUM_CAPI|.0H$ §Y§Y Großkampfschiffe §!§! ."</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8656,11 +8656,11 @@
       </c>
       <c r="C381" s="1" t="str">
         <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_LOW_INFO: "Lücken in der §YGeleitgruppe§! führen zu einer niedrigen Schutzeffizienz, wodurch feindliche U-Boote die nächste Schlachtlinie als Ziel anvisieren können."</v>
+        <v> SCREENING_TOOLTIP_LOW_INFO: "Lücken in der §Y§Y Geleitgruppe §!§!  führen zu einer niedrigen Schutzeffizienz, wodurch feindliche U-Boote die nächste Schlachtlinie als Ziel anvisieren können."</v>
       </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
-        <v> SCREENING_TOOLTIP_LOW_INFO: "Lücken in der §YGeleitgruppe§! führen zu einer niedrigen Schutzeffizienz, wodurch feindliche U-Boote die nächste Schlachtlinie als Ziel anvisieren können."</v>
+        <v> SCREENING_TOOLTIP_LOW_INFO: "Lücken in der §Y§Y Geleitgruppe §!§!  führen zu einer niedrigen Schutzeffizienz, wodurch feindliche U-Boote die nächste Schlachtlinie als Ziel anvisieren können."</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,11 +8672,11 @@
       </c>
       <c r="C382" s="1" t="str">
         <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_BONUSES: "Ihre Schutzeffizienz verleiht Ihrer §YSchlachtlinie§! die folgenden Boni:\n"</v>
+        <v> SCREENING_TOOLTIP_BONUSES: "Ihre Schutzeffizienz verleiht Ihrer §Y§Y Schlachtlinie §!§!  die folgenden Boni:\n"</v>
       </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
-        <v> SCREENING_TOOLTIP_BONUSES: "Ihre Schutzeffizienz verleiht Ihrer §YSchlachtlinie§! die folgenden Boni:\n"</v>
+        <v> SCREENING_TOOLTIP_BONUSES: "Ihre Schutzeffizienz verleiht Ihrer §Y§Y Schlachtlinie §!§!  die folgenden Boni:\n"</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8688,11 +8688,11 @@
       </c>
       <c r="C383" s="1" t="str">
         <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_BONUSES_CAPITAL: "Ihre Schutzeffizienz verleiht Ihrer §YFlugzeugträgergruppe§! die folgenden Boni:\n"</v>
+        <v> SCREENING_TOOLTIP_BONUSES_CAPITAL: "Ihre Schutzeffizienz verleiht Ihrer §Y§Y Flugzeugträgergruppe §!§!  die folgenden Boni:\n"</v>
       </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
-        <v> SCREENING_TOOLTIP_BONUSES_CAPITAL: "Ihre Schutzeffizienz verleiht Ihrer §YFlugzeugträgergruppe§! die folgenden Boni:\n"</v>
+        <v> SCREENING_TOOLTIP_BONUSES_CAPITAL: "Ihre Schutzeffizienz verleiht Ihrer §Y§Y Flugzeugträgergruppe §!§!  die folgenden Boni:\n"</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,11 +8704,11 @@
       </c>
       <c r="C384" s="1" t="str">
         <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v> SCREENING_TOOLTIP_NO_SCREENS: "Wenn Sie nicht genügend §YGeleitschiffe§! besitzen, können feindliche U-Boote und andere leichte Schiffe Ihre Großkampfschiffe mit Torpedos angreifen. Außerdem werden Sie mit einem hohen Malus auf Ihre Positionierung belegt."</v>
+        <v> SCREENING_TOOLTIP_NO_SCREENS: "Wenn Sie nicht genügend §Y§Y Geleitschiffe §!§!  besitzen, können feindliche U-Boote und andere leichte Schiffe Ihre Großkampfschiffe mit Torpedos angreifen. Außerdem werden Sie mit einem hohen Malus auf Ihre Positionierung belegt."</v>
       </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
-        <v> SCREENING_TOOLTIP_NO_SCREENS: "Wenn Sie nicht genügend §YGeleitschiffe§! besitzen, können feindliche U-Boote und andere leichte Schiffe Ihre Großkampfschiffe mit Torpedos angreifen. Außerdem werden Sie mit einem hohen Malus auf Ihre Positionierung belegt."</v>
+        <v> SCREENING_TOOLTIP_NO_SCREENS: "Wenn Sie nicht genügend §Y§Y Geleitschiffe §!§!  besitzen, können feindliche U-Boote und andere leichte Schiffe Ihre Großkampfschiffe mit Torpedos angreifen. Außerdem werden Sie mit einem hohen Malus auf Ihre Positionierung belegt."</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,11 +8720,11 @@
       </c>
       <c r="C385" s="1" t="str">
         <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v> SCREENING_BOX_TOOLTIP: "Die §YGeleitgruppe§! enthält alle Geleitschiffe (auch Schutzschiffe genannt). Dabei handelt es sich meist um leichte Kreuzer und Zerstörer. Sie haben die Aufgabe, die feindlichen Geleitschiffe von der primären §YSchlachtlinie§! fernzuhalten. Wenn Ihr Geleitschutz zu schwach ist, können feindliche Geleitschiffe Torpedoangriffe gegen die Schlachtlinie unternehmen."</v>
+        <v> SCREENING_BOX_TOOLTIP: "Die §Y§Y Geleitgruppe §!§!  enthält alle Geleitschiffe (auch Schutzschiffe genannt). Dabei handelt es sich meist um leichte Kreuzer und Zerstörer. Sie haben die Aufgabe, die feindlichen Geleitschiffe von der primären §Y§Y Schlachtlinie §!§!  fernzuhalten. Wenn Ihr Geleitschutz zu schwach ist, können feindliche Geleitschiffe Torpedoangriffe gegen die Schlachtlinie unternehmen."</v>
       </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
-        <v> SCREENING_BOX_TOOLTIP: "Die §YGeleitgruppe§! enthält alle Geleitschiffe (auch Schutzschiffe genannt). Dabei handelt es sich meist um leichte Kreuzer und Zerstörer. Sie haben die Aufgabe, die feindlichen Geleitschiffe von der primären §YSchlachtlinie§! fernzuhalten. Wenn Ihr Geleitschutz zu schwach ist, können feindliche Geleitschiffe Torpedoangriffe gegen die Schlachtlinie unternehmen."</v>
+        <v> SCREENING_BOX_TOOLTIP: "Die §Y§Y Geleitgruppe §!§!  enthält alle Geleitschiffe (auch Schutzschiffe genannt). Dabei handelt es sich meist um leichte Kreuzer und Zerstörer. Sie haben die Aufgabe, die feindlichen Geleitschiffe von der primären §Y§Y Schlachtlinie §!§!  fernzuhalten. Wenn Ihr Geleitschutz zu schwach ist, können feindliche Geleitschiffe Torpedoangriffe gegen die Schlachtlinie unternehmen."</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8736,11 +8736,11 @@
       </c>
       <c r="C386" s="1" t="str">
         <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v> CAPITAL_BOX_TOOLTIP: "Die §YSchlachtlinie§! stellt die primäre direkte Feuerkraft der Flotte zur Verfügung, meist in Form von Schlachtschiffen und Schweren Kreuzern. Außerdem verhindert sie, dass feindliche Großkampfschiffe auf verbündete §YFlugzeugträger§! feuern."</v>
+        <v> CAPITAL_BOX_TOOLTIP: "Die §Y§Y Schlachtlinie §!§!  stellt die primäre direkte Feuerkraft der Flotte zur Verfügung, meist in Form von Schlachtschiffen und Schweren Kreuzern. Außerdem verhindert sie, dass feindliche Großkampfschiffe auf verbündete §Y§Y Flugzeugträger §!§!  feuern."</v>
       </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
-        <v> CAPITAL_BOX_TOOLTIP: "Die §YSchlachtlinie§! stellt die primäre direkte Feuerkraft der Flotte zur Verfügung, meist in Form von Schlachtschiffen und Schweren Kreuzern. Außerdem verhindert sie, dass feindliche Großkampfschiffe auf verbündete §YFlugzeugträger§! feuern."</v>
+        <v> CAPITAL_BOX_TOOLTIP: "Die §Y§Y Schlachtlinie §!§!  stellt die primäre direkte Feuerkraft der Flotte zur Verfügung, meist in Form von Schlachtschiffen und Schweren Kreuzern. Außerdem verhindert sie, dass feindliche Großkampfschiffe auf verbündete §Y§Y Flugzeugträger §!§!  feuern."</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,11 +8752,11 @@
       </c>
       <c r="C387" s="1" t="str">
         <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v> CARRIER_BOX_TOOLTIP: "Die §YFlugzeugträgergruppe§! stellt die primäre Distanzangriffskraft der Flotte zur Verfügung. Sie wird sowohl durch die §YGeleitgruppe§! als auch durch die §YSchlachtlinie§! vor dem Feind beschützt, um ungestört Angriffe unternehmen zu können. Sollte sich ein §YKonvoi§! in der Schlacht befinden, erscheint er auch in diesem Bereich."</v>
+        <v> CARRIER_BOX_TOOLTIP: "Die §Y§Y Flugzeugträgergruppe §!§!  stellt die primäre Distanzangriffskraft der Flotte zur Verfügung. Sie wird sowohl durch die §Y§Y Geleitgruppe §!§!  als auch durch die §Y§Y Schlachtlinie §!§!  vor dem Feind beschützt, um ungestört Angriffe unternehmen zu können. Sollte sich ein §Y§Y Konvoi §!§!  in der Schlacht befinden, erscheint er auch in diesem Bereich."</v>
       </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
-        <v> CARRIER_BOX_TOOLTIP: "Die §YFlugzeugträgergruppe§! stellt die primäre Distanzangriffskraft der Flotte zur Verfügung. Sie wird sowohl durch die §YGeleitgruppe§! als auch durch die §YSchlachtlinie§! vor dem Feind beschützt, um ungestört Angriffe unternehmen zu können. Sollte sich ein §YKonvoi§! in der Schlacht befinden, erscheint er auch in diesem Bereich."</v>
+        <v> CARRIER_BOX_TOOLTIP: "Die §Y§Y Flugzeugträgergruppe §!§!  stellt die primäre Distanzangriffskraft der Flotte zur Verfügung. Sie wird sowohl durch die §Y§Y Geleitgruppe §!§!  als auch durch die §Y§Y Schlachtlinie §!§!  vor dem Feind beschützt, um ungestört Angriffe unternehmen zu können. Sollte sich ein §Y§Y Konvoi §!§!  in der Schlacht befinden, erscheint er auch in diesem Bereich."</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8768,11 +8768,11 @@
       </c>
       <c r="C388" s="1" t="str">
         <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v> SUBMARINE_BOX_TOOLTIP: "Das §YU-Boot-Wolfsrudel§! versucht, fliehende Schiffe mit Torpedos zu versenken, ohne dabei entdeckt zu werden. Wenn der Feind nicht über genügend spezielle U-Boot-Abwehr-Schiffe verfügt, können die U-Boote unbemerkt entkommen."</v>
+        <v> SUBMARINE_BOX_TOOLTIP: "Das §Y§Y U-Boot-Wolfsrudel §!§!  versucht, fliehende Schiffe mit Torpedos zu versenken, ohne dabei entdeckt zu werden. Wenn der Feind nicht über genügend spezielle U-Boot-Abwehr-Schiffe verfügt, können die U-Boote unbemerkt entkommen."</v>
       </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
-        <v> SUBMARINE_BOX_TOOLTIP: "Das §YU-Boot-Wolfsrudel§! versucht, fliehende Schiffe mit Torpedos zu versenken, ohne dabei entdeckt zu werden. Wenn der Feind nicht über genügend spezielle U-Boot-Abwehr-Schiffe verfügt, können die U-Boote unbemerkt entkommen."</v>
+        <v> SUBMARINE_BOX_TOOLTIP: "Das §Y§Y U-Boot-Wolfsrudel §!§!  versucht, fliehende Schiffe mit Torpedos zu versenken, ohne dabei entdeckt zu werden. Wenn der Feind nicht über genügend spezielle U-Boot-Abwehr-Schiffe verfügt, können die U-Boote unbemerkt entkommen."</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8904,950 +8904,570 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
